--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BCE611-09F0-4065-9598-28B3E689055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93965B3C-5D51-486A-8F84-02AA3B135C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2340" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93965B3C-5D51-486A-8F84-02AA3B135C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74316E77-D3CE-4A3E-AFC7-FD22BE625C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3630" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74316E77-D3CE-4A3E-AFC7-FD22BE625C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BA544-F15B-4ACA-A312-2299B3346743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3630" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25215" yWindow="4380" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,31 +169,6 @@
             <v>2020</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
@@ -2434,6 +2410,73 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Energy, Winter"/>
+      <sheetName val="Flexibility, Winter"/>
+      <sheetName val="Secondary Reserve, Winter"/>
+      <sheetName val="Tertiary Reserve Up, Winter"/>
+      <sheetName val="Tertiary Reserve Down, Winter"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2705,7 +2748,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,8 +2797,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.8113615841033535</v>
+        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <v>1.1614000828953406</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2772,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2781,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2790,7 +2833,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -3787,99 +3830,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>79.174614841157577</v>
+        <v>50.764797623355335</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>73.876382207655269</v>
+        <v>47.367702380886463</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>70.738198263196196</v>
+        <v>45.355576737270283</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>66.336589613825069</v>
+        <v>42.533374535834611</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>68.31550214445798</v>
+        <v>43.802204126397775</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>73.803927744291144</v>
+        <v>47.32124637757066</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>89.291069288374814</v>
+        <v>57.251217086325816</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>93.448144123892007</v>
+        <v>59.916630276570622</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>98.266365937606921</v>
+        <v>63.005954497072224</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>97.519179284164295</v>
+        <v>62.5268769628779</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>95.639891640657069</v>
+        <v>61.321924376873987</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>95.17346603275044</v>
+        <v>61.022863855528428</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>91.487345209100113</v>
+        <v>58.659414686836406</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>90.196750080426483</v>
+        <v>57.831917127773487</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>88.426144131965458</v>
+        <v>56.69664854674329</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>88.602751886415533</v>
+        <v>56.809885054825585</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>89.970329882413566</v>
+        <v>57.686742117411569</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>94.417222571387299</v>
+        <v>60.537979320919625</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>98.936569723725171</v>
+        <v>63.435672527743506</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>99.697341589048591</v>
+        <v>63.923460562559555</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>97.396912377237314</v>
+        <v>62.448482457282459</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>91.279038626928241</v>
+        <v>58.525853677303445</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>82.385253248980774</v>
+        <v>52.823379270287333</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>77.327026025372149</v>
+        <v>49.580169538802089</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3888,99 +3931,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>73.939779863098892</v>
+        <v>47.408351383787803</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>69.791761835502214</v>
+        <v>44.748745193957475</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>65.272414683164342</v>
+        <v>41.851051987133594</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>62.356122532757936</v>
+        <v>39.981197853672093</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>65.824879966315876</v>
+        <v>42.205279012416682</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>69.338921439476366</v>
+        <v>44.45839517323364</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>80.062182017368229</v>
+        <v>51.333883663974056</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>83.630564338051826</v>
+        <v>53.621841827277876</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>87.81480959733058</v>
+        <v>56.304676018766116</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>88.403502112164162</v>
+        <v>56.682131045707095</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>85.858539086498965</v>
+        <v>55.050363929239147</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>84.092461541998176</v>
+        <v>53.917998848416183</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>81.520328092571418</v>
+        <v>52.2688107307048</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>80.659931340122327</v>
+        <v>51.71714569132952</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>77.064378595677169</v>
+        <v>49.411766526782266</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>76.457572465002556</v>
+        <v>49.022697499012324</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>78.033457043172461</v>
+        <v>50.033115571131269</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>86.03967524490929</v>
+        <v>55.166503937528681</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>90.079011577459781</v>
+        <v>57.756426122385292</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>91.491873613060392</v>
+        <v>58.66231818704366</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>91.99905485660932</v>
+        <v>58.987510210254349</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>87.914434484456251</v>
+        <v>56.368553023325354</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>79.618398429262896</v>
+        <v>51.049340643664692</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>75.551891672950873</v>
+        <v>48.441997457564653</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3989,99 +4032,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>84.409449819216277</v>
+        <v>54.121243862922874</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>77.961002579808337</v>
+        <v>49.986659567815458</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>76.203981843228078</v>
+        <v>48.860101487406979</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>70.317056694892187</v>
+        <v>45.085551217997121</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>70.806124322600098</v>
+        <v>45.399129240378869</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>78.268934049105908</v>
+        <v>50.184097581907665</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>98.519956559381399</v>
+        <v>63.168550508677576</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>103.26572390973217</v>
+        <v>66.211418725863368</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>108.71792227788328</v>
+        <v>69.707232975378346</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>106.63485645616441</v>
+        <v>68.37162288004869</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>105.42124419481517</v>
+        <v>67.59348482450882</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>106.2544705235027</v>
+        <v>68.12772886264068</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>101.45436232562882</v>
+        <v>65.050018642968027</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>99.733568820730639</v>
+        <v>63.946688564217453</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>99.787909668253747</v>
+        <v>63.981530566704315</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>100.74793130782851</v>
+        <v>64.597072610638847</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>101.90720272165466</v>
+        <v>65.340368663691862</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>102.79476989786531</v>
+        <v>65.909454704310576</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>107.79412786999056</v>
+        <v>69.11491893310172</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>107.90280956503676</v>
+        <v>69.184602938075443</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>102.79476989786531</v>
+        <v>65.909454704310576</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>94.643642769400216</v>
+        <v>60.683154331281543</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>85.152108068698638</v>
+        <v>54.59741789690996</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>79.102160377793453</v>
+        <v>50.718341620039524</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4235,99 +4278,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>95.009537809389087</v>
+        <v>60.917757148026404</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>88.651658649186317</v>
+        <v>56.841242857063747</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>84.885837915835452</v>
+        <v>54.426692084724344</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>79.603907536590086</v>
+        <v>51.040049443001536</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>81.978602573349576</v>
+        <v>52.562644951677328</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>88.564713293149367</v>
+        <v>56.785495653084787</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>107.14928314604975</v>
+        <v>68.701460503590965</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>112.1377729486704</v>
+        <v>71.899956331884752</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>117.9196391251283</v>
+        <v>75.607145396486672</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>117.02301514099713</v>
+        <v>75.032252355453465</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>114.7678699687885</v>
+        <v>73.586309252248796</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>114.20815923930053</v>
+        <v>73.227436626634116</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>109.78481425092012</v>
+        <v>70.391297624203688</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>108.23610009651176</v>
+        <v>69.39830055332817</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>106.11137295835856</v>
+        <v>68.035978256091951</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>106.32330226369864</v>
+        <v>68.171862065790691</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>107.96439585889627</v>
+        <v>69.224090540893869</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>113.30066708566476</v>
+        <v>72.645575185103553</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>118.72388366847019</v>
+        <v>76.122807033292204</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>119.63680990685829</v>
+        <v>76.70815267507146</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>116.87629485268478</v>
+        <v>74.938178948738951</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>109.53484635231389</v>
+        <v>70.231024412764143</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>98.862303898776915</v>
+        <v>63.388055124344788</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>92.792431230446581</v>
+        <v>59.496203446562504</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4336,99 +4379,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>95.009537809389087</v>
+        <v>60.917757148026404</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>88.651658649186317</v>
+        <v>56.841242857063747</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>84.885837915835452</v>
+        <v>54.426692084724344</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>79.603907536590086</v>
+        <v>51.040049443001536</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>81.978602573349576</v>
+        <v>52.562644951677328</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>88.564713293149367</v>
+        <v>56.785495653084787</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>107.14928314604975</v>
+        <v>68.701460503590965</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>112.1377729486704</v>
+        <v>71.899956331884752</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>117.9196391251283</v>
+        <v>75.607145396486672</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>117.02301514099713</v>
+        <v>75.032252355453465</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>114.7678699687885</v>
+        <v>73.586309252248796</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>114.20815923930053</v>
+        <v>73.227436626634116</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>109.78481425092012</v>
+        <v>70.391297624203688</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>108.23610009651176</v>
+        <v>69.39830055332817</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>106.11137295835856</v>
+        <v>68.035978256091951</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>106.32330226369864</v>
+        <v>68.171862065790691</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>107.96439585889627</v>
+        <v>69.224090540893869</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>113.30066708566476</v>
+        <v>72.645575185103553</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>118.72388366847019</v>
+        <v>76.122807033292204</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>119.63680990685829</v>
+        <v>76.70815267507146</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>116.87629485268478</v>
+        <v>74.938178948738951</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>109.53484635231389</v>
+        <v>70.231024412764143</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>98.862303898776915</v>
+        <v>63.388055124344788</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>92.792431230446581</v>
+        <v>59.496203446562504</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4437,99 +4480,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>95.009537809389087</v>
+        <v>60.917757148026404</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>88.651658649186317</v>
+        <v>56.841242857063747</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>84.885837915835452</v>
+        <v>54.426692084724344</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>79.603907536590086</v>
+        <v>51.040049443001536</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>81.978602573349576</v>
+        <v>52.562644951677328</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>88.564713293149367</v>
+        <v>56.785495653084787</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>107.14928314604975</v>
+        <v>68.701460503590965</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>112.1377729486704</v>
+        <v>71.899956331884752</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>117.9196391251283</v>
+        <v>75.607145396486672</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>117.02301514099713</v>
+        <v>75.032252355453465</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>114.7678699687885</v>
+        <v>73.586309252248796</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>114.20815923930053</v>
+        <v>73.227436626634116</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>109.78481425092012</v>
+        <v>70.391297624203688</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>108.23610009651176</v>
+        <v>69.39830055332817</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>106.11137295835856</v>
+        <v>68.035978256091951</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>106.32330226369864</v>
+        <v>68.171862065790691</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>107.96439585889627</v>
+        <v>69.224090540893869</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>113.30066708566476</v>
+        <v>72.645575185103553</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>118.72388366847019</v>
+        <v>76.122807033292204</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>119.63680990685829</v>
+        <v>76.70815267507146</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>116.87629485268478</v>
+        <v>74.938178948738951</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>109.53484635231389</v>
+        <v>70.231024412764143</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>98.862303898776915</v>
+        <v>63.388055124344788</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>92.792431230446581</v>
+        <v>59.496203446562504</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6050,99 +6093,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>67.509446239531982</v>
+        <v>43.28538108950935</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>61.604407475355046</v>
+        <v>39.499216819270529</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>58.996046794246226</v>
+        <v>37.826800699901241</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>57.927343459625241</v>
+        <v>37.141574650992993</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>58.199047697240751</v>
+        <v>37.315784663427294</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>65.879220813838955</v>
+        <v>42.240121014903536</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>68.668717653358129</v>
+        <v>44.028677142562358</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>68.668717653358129</v>
+        <v>44.028677142562358</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>72.164645510677602</v>
+        <v>46.270179302550375</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>72.345781669087927</v>
+        <v>46.386319310839902</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>72.164645510677602</v>
+        <v>46.270179302550375</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>72.472576979975173</v>
+        <v>46.467617316642574</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>71.440100877036258</v>
+        <v>45.805619269392231</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>70.987260481010424</v>
+        <v>45.515269248668396</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>69.501943982045674</v>
+        <v>44.562921180694218</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>67.364537312803705</v>
+        <v>43.192469082877714</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>63.361428211935298</v>
+        <v>40.625774899679008</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>67.690582397942308</v>
+        <v>43.401521097798877</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>70.280829463210111</v>
+        <v>45.062323216339209</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>72.273327205723803</v>
+        <v>46.339863307524091</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>70.715556243394914</v>
+        <v>45.341059236234095</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>72.164645510677602</v>
+        <v>46.270179302550375</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>72.019736583949324</v>
+        <v>46.177267295918739</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>69.085330817701902</v>
+        <v>44.295799161628288</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6151,99 +6194,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>71.874827657221061</v>
+        <v>46.084355289287117</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>63.397655443617374</v>
+        <v>40.649002901336921</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>69.194012512748102</v>
+        <v>44.365483166602012</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>66.839242453413746</v>
+        <v>42.855663058838068</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>68.125309178127125</v>
+        <v>43.680257117693756</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>69.194012512748102</v>
+        <v>44.365483166602012</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>67.400764544485781</v>
+        <v>43.215697084535627</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>72.780508449272745</v>
+        <v>46.665055330734781</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>77.598730262987672</v>
+        <v>49.754379551236397</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>77.942888963967306</v>
+        <v>49.975045566986509</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>78.703660829290712</v>
+        <v>50.462833601802551</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>80.188977328255461</v>
+        <v>51.415181669776729</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>81.456930437127809</v>
+        <v>52.228161727803467</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>83.576223490528733</v>
+        <v>53.586999824791015</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>80.406340718347863</v>
+        <v>51.554549679724168</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>77.90666173228523</v>
+        <v>49.951817565328597</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>77.634957494669735</v>
+        <v>49.777607552894295</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>79.21084207283964</v>
+        <v>50.78802562501324</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>79.645568853024443</v>
+        <v>51.066761644908127</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>81.330135126240563</v>
+        <v>52.146863722000788</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>82.326383997497416</v>
+        <v>52.785633767593232</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>83.594337106369764</v>
+        <v>53.598613825619964</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>81.456930437127809</v>
+        <v>52.228161727803467</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>76.982867324392515</v>
+        <v>49.359503523051977</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6252,99 +6295,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>60.481363293210975</v>
+        <v>38.779148767875419</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>55.826164022065356</v>
+        <v>35.794350554834395</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>52.330236164745884</v>
+        <v>33.552848394846393</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>51.497009836058339</v>
+        <v>33.018604356714533</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>53.272144188479622</v>
+        <v>34.156776437951969</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>62.292724877314328</v>
+        <v>39.94054885077076</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>81.94599806483572</v>
+        <v>52.541739750185208</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>77.743639189715935</v>
+        <v>49.847291557868019</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>81.293907894558501</v>
+        <v>52.123635720342889</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>80.243318175778555</v>
+        <v>51.450023672263583</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>74.374506643283695</v>
+        <v>47.687087403682689</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>72.273327205723803</v>
+        <v>46.339863307524091</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>80.025954785686153</v>
+        <v>51.310655662316144</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>81.837316369789505</v>
+        <v>52.472055745211485</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>81.293907894558501</v>
+        <v>52.123635720342889</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>80.333886254983724</v>
+        <v>51.508093676408357</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>80.333886254983724</v>
+        <v>51.508093676408357</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>81.293907894558501</v>
+        <v>52.123635720342889</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>83.648677953892857</v>
+        <v>53.633455828106825</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>86.727992646868572</v>
+        <v>55.607835969028912</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>92.705485874409632</v>
+        <v>59.440456242583529</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>100.87472661871575</v>
+        <v>64.678370616441512</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>91.962827624927257</v>
+        <v>58.964282208596444</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>81.511271284650903</v>
+        <v>52.263003730290329</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6498,99 +6541,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>79.946254875985616</v>
+        <v>51.259554058668755</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>72.331290776415102</v>
+        <v>46.377028110176731</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>72.208118188696091</v>
+        <v>46.298052904539865</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>70.505438299638925</v>
+        <v>45.206336826618234</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>71.838600425538999</v>
+        <v>46.061127287629212</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>78.946383281560557</v>
+        <v>50.618461212910518</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>87.206192105071864</v>
+        <v>55.914445590913282</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>87.677146116938715</v>
+        <v>56.216409612466059</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>92.422913467289504</v>
+        <v>59.259277829651857</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>92.212795523533501</v>
+        <v>59.124555420035989</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>90.097125193300798</v>
+        <v>57.768040123214242</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>89.973952605581786</v>
+        <v>57.689064917577362</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>93.169194439940085</v>
+        <v>59.737774663804736</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>94.560320136531459</v>
+        <v>60.629729927468354</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>92.48087703798079</v>
+        <v>59.296442632304498</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>90.242034120029047</v>
+        <v>57.860952129845849</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>88.532108784635497</v>
+        <v>56.76459045159266</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>91.278132946136182</v>
+        <v>58.525272977261999</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>93.430030508050962</v>
+        <v>59.905016275741659</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>96.132581991533172</v>
+        <v>61.637825199421513</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>98.298970446120791</v>
+        <v>63.026859698564344</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>102.65348369430524</v>
+        <v>65.81886549784474</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>98.175797858401751</v>
+        <v>62.947884492927457</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>91.031787770698131</v>
+        <v>58.367322565988239</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6599,99 +6642,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>79.946254875985616</v>
+        <v>51.259554058668755</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>72.331290776415102</v>
+        <v>46.377028110176731</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>72.208118188696091</v>
+        <v>46.298052904539865</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>70.505438299638925</v>
+        <v>45.206336826618234</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>71.838600425538999</v>
+        <v>46.061127287629212</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>78.946383281560557</v>
+        <v>50.618461212910518</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>87.206192105071864</v>
+        <v>55.914445590913282</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>87.677146116938715</v>
+        <v>56.216409612466059</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>92.422913467289504</v>
+        <v>59.259277829651857</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>92.212795523533501</v>
+        <v>59.124555420035989</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>90.097125193300798</v>
+        <v>57.768040123214242</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>89.973952605581786</v>
+        <v>57.689064917577362</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>93.169194439940085</v>
+        <v>59.737774663804736</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>94.560320136531459</v>
+        <v>60.629729927468354</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>92.48087703798079</v>
+        <v>59.296442632304498</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>90.242034120029047</v>
+        <v>57.860952129845849</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>88.532108784635497</v>
+        <v>56.76459045159266</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>91.278132946136182</v>
+        <v>58.525272977261999</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>93.430030508050962</v>
+        <v>59.905016275741659</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>96.132581991533172</v>
+        <v>61.637825199421513</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>98.298970446120791</v>
+        <v>63.026859698564344</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>102.65348369430524</v>
+        <v>65.81886549784474</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>98.175797858401751</v>
+        <v>62.947884492927457</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>91.031787770698131</v>
+        <v>58.367322565988239</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6700,99 +6743,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>79.946254875985616</v>
+        <v>51.259554058668755</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>72.331290776415102</v>
+        <v>46.377028110176731</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>72.208118188696091</v>
+        <v>46.298052904539865</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>70.505438299638925</v>
+        <v>45.206336826618234</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>71.838600425538999</v>
+        <v>46.061127287629212</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>78.946383281560557</v>
+        <v>50.618461212910518</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>87.206192105071864</v>
+        <v>55.914445590913282</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>87.677146116938715</v>
+        <v>56.216409612466059</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>92.422913467289504</v>
+        <v>59.259277829651857</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>92.212795523533501</v>
+        <v>59.124555420035989</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>90.097125193300798</v>
+        <v>57.768040123214242</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>89.973952605581786</v>
+        <v>57.689064917577362</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>93.169194439940085</v>
+        <v>59.737774663804736</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>94.560320136531459</v>
+        <v>60.629729927468354</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>92.48087703798079</v>
+        <v>59.296442632304498</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>90.242034120029047</v>
+        <v>57.860952129845849</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>88.532108784635497</v>
+        <v>56.76459045159266</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>91.278132946136182</v>
+        <v>58.525272977261999</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>93.430030508050962</v>
+        <v>59.905016275741659</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>96.132581991533172</v>
+        <v>61.637825199421513</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>98.298970446120791</v>
+        <v>63.026859698564344</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>102.65348369430524</v>
+        <v>65.81886549784474</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>98.175797858401751</v>
+        <v>62.947884492927457</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>91.031787770698131</v>
+        <v>58.367322565988239</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BA544-F15B-4ACA-A312-2299B3346743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD6384-CEF3-4DC6-ADBC-E2C1C0EEE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="4380" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25560" yWindow="4035" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -169,2247 +169,42 @@
             <v>2020</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>43.71</v>
-          </cell>
-          <cell r="C2">
-            <v>40.784999999999997</v>
-          </cell>
-          <cell r="D2">
-            <v>39.052499999999995</v>
-          </cell>
-          <cell r="E2">
-            <v>36.622500000000002</v>
-          </cell>
-          <cell r="F2">
-            <v>37.715000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>40.745000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>49.295000000000002</v>
-          </cell>
-          <cell r="I2">
-            <v>51.59</v>
-          </cell>
-          <cell r="J2">
-            <v>54.25</v>
-          </cell>
-          <cell r="K2">
-            <v>53.837499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>52.800000000000004</v>
-          </cell>
-          <cell r="M2">
-            <v>52.542499999999997</v>
-          </cell>
-          <cell r="N2">
-            <v>50.507499999999993</v>
-          </cell>
-          <cell r="O2">
-            <v>49.795000000000002</v>
-          </cell>
-          <cell r="P2">
-            <v>48.817500000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>48.914999999999999</v>
-          </cell>
-          <cell r="R2">
-            <v>49.67</v>
-          </cell>
-          <cell r="S2">
-            <v>52.125</v>
-          </cell>
-          <cell r="T2">
-            <v>54.620000000000005</v>
-          </cell>
-          <cell r="U2">
-            <v>55.040000000000006</v>
-          </cell>
-          <cell r="V2">
-            <v>53.769999999999996</v>
-          </cell>
-          <cell r="W2">
-            <v>50.392499999999998</v>
-          </cell>
-          <cell r="X2">
-            <v>45.482500000000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>42.69</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>40.82</v>
-          </cell>
-          <cell r="C3">
-            <v>38.53</v>
-          </cell>
-          <cell r="D3">
-            <v>36.034999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>34.424999999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>36.340000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>38.28</v>
-          </cell>
-          <cell r="H3">
-            <v>44.2</v>
-          </cell>
-          <cell r="I3">
-            <v>46.17</v>
-          </cell>
-          <cell r="J3">
-            <v>48.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>48.805</v>
-          </cell>
-          <cell r="L3">
-            <v>47.400000000000006</v>
-          </cell>
-          <cell r="M3">
-            <v>46.424999999999997</v>
-          </cell>
-          <cell r="N3">
-            <v>45.004999999999995</v>
-          </cell>
-          <cell r="O3">
-            <v>44.53</v>
-          </cell>
-          <cell r="P3">
-            <v>42.545000000000002</v>
-          </cell>
-          <cell r="Q3">
-            <v>42.21</v>
-          </cell>
-          <cell r="R3">
-            <v>43.08</v>
-          </cell>
-          <cell r="S3">
-            <v>47.5</v>
-          </cell>
-          <cell r="T3">
-            <v>49.730000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>50.510000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>50.79</v>
-          </cell>
-          <cell r="W3">
-            <v>48.534999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>43.954999999999998</v>
-          </cell>
-          <cell r="Y3">
-            <v>41.71</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="B4">
-            <v>46.6</v>
-          </cell>
-          <cell r="C4">
-            <v>43.04</v>
-          </cell>
-          <cell r="D4">
-            <v>42.07</v>
-          </cell>
-          <cell r="E4">
-            <v>38.82</v>
-          </cell>
-          <cell r="F4">
-            <v>39.090000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>43.21</v>
-          </cell>
-          <cell r="H4">
-            <v>54.39</v>
-          </cell>
-          <cell r="I4">
-            <v>57.01</v>
-          </cell>
-          <cell r="J4">
-            <v>60.02</v>
-          </cell>
-          <cell r="K4">
-            <v>58.87</v>
-          </cell>
-          <cell r="L4">
-            <v>58.2</v>
-          </cell>
-          <cell r="M4">
-            <v>58.66</v>
-          </cell>
-          <cell r="N4">
-            <v>56.01</v>
-          </cell>
-          <cell r="O4">
-            <v>55.06</v>
-          </cell>
-          <cell r="P4">
-            <v>55.09</v>
-          </cell>
-          <cell r="Q4">
-            <v>55.62</v>
-          </cell>
-          <cell r="R4">
-            <v>56.26</v>
-          </cell>
-          <cell r="S4">
-            <v>56.75</v>
-          </cell>
-          <cell r="T4">
-            <v>59.51</v>
-          </cell>
-          <cell r="U4">
-            <v>59.57</v>
-          </cell>
-          <cell r="V4">
-            <v>56.75</v>
-          </cell>
-          <cell r="W4">
-            <v>52.25</v>
-          </cell>
-          <cell r="X4">
-            <v>47.01</v>
-          </cell>
-          <cell r="Y4">
-            <v>43.67</v>
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C2">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D2">
-            <v>46.863</v>
-          </cell>
-          <cell r="E2">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F2">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I2">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K2">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M2">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N2">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O2">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P2">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R2">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S2">
-            <v>62.55</v>
-          </cell>
-          <cell r="T2">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V2">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X2">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y2">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C3">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D3">
-            <v>46.863</v>
-          </cell>
-          <cell r="E3">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F3">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H3">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I3">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J3">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K3">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L3">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M3">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O3">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P3">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q3">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R3">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S3">
-            <v>62.55</v>
-          </cell>
-          <cell r="T3">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U3">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V3">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X3">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y3">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C4">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D4">
-            <v>46.863</v>
-          </cell>
-          <cell r="E4">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F4">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H4">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I4">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J4">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K4">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L4">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M4">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N4">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O4">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P4">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q4">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R4">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S4">
-            <v>62.55</v>
-          </cell>
-          <cell r="T4">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U4">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V4">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X4">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y4">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>25.342275000000001</v>
-          </cell>
-          <cell r="C2">
-            <v>24.594854999999999</v>
-          </cell>
-          <cell r="D2">
-            <v>27.759217499999998</v>
-          </cell>
-          <cell r="E2">
-            <v>30.54975</v>
-          </cell>
-          <cell r="F2">
-            <v>32.125005000000002</v>
-          </cell>
-          <cell r="G2">
-            <v>29.361535</v>
-          </cell>
-          <cell r="H2">
-            <v>27.199200000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>29.454137500000002</v>
-          </cell>
-          <cell r="J2">
-            <v>25.75685</v>
-          </cell>
-          <cell r="K2">
-            <v>23.352209999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>22.9788</v>
-          </cell>
-          <cell r="M2">
-            <v>20.269462499999999</v>
-          </cell>
-          <cell r="N2">
-            <v>22.549799999999994</v>
-          </cell>
-          <cell r="O2">
-            <v>18.743400000000001</v>
-          </cell>
-          <cell r="P2">
-            <v>19.593999999999998</v>
-          </cell>
-          <cell r="Q2">
-            <v>16.172449999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>12.758287500000002</v>
-          </cell>
-          <cell r="S2">
-            <v>14.871139999999999</v>
-          </cell>
-          <cell r="T2">
-            <v>10.08586</v>
-          </cell>
-          <cell r="U2">
-            <v>8.7737250000000007</v>
-          </cell>
-          <cell r="V2">
-            <v>9.8389550000000003</v>
-          </cell>
-          <cell r="W2">
-            <v>13.74175</v>
-          </cell>
-          <cell r="X2">
-            <v>16.117327500000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>14.23521</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>20.34</v>
-          </cell>
-          <cell r="C3">
-            <v>21.39</v>
-          </cell>
-          <cell r="D3">
-            <v>29.287499999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>33.202500000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>36.134999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>35.917500000000004</v>
-          </cell>
-          <cell r="H3">
-            <v>35.67</v>
-          </cell>
-          <cell r="I3">
-            <v>37.387500000000003</v>
-          </cell>
-          <cell r="J3">
-            <v>34.799999999999997</v>
-          </cell>
-          <cell r="K3">
-            <v>30.075000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>30.93</v>
-          </cell>
-          <cell r="M3">
-            <v>25.297499999999999</v>
-          </cell>
-          <cell r="N3">
-            <v>28.83</v>
-          </cell>
-          <cell r="O3">
-            <v>21.509999999999998</v>
-          </cell>
-          <cell r="P3">
-            <v>22.65</v>
-          </cell>
-          <cell r="Q3">
-            <v>20.34</v>
-          </cell>
-          <cell r="R3">
-            <v>13.642500000000002</v>
-          </cell>
-          <cell r="S3">
-            <v>17.009999999999998</v>
-          </cell>
-          <cell r="T3">
-            <v>11.115</v>
-          </cell>
-          <cell r="U3">
-            <v>9.75</v>
-          </cell>
-          <cell r="V3">
-            <v>10.8825</v>
-          </cell>
-          <cell r="W3">
-            <v>12.78</v>
-          </cell>
-          <cell r="X3">
-            <v>13.657500000000001</v>
-          </cell>
-          <cell r="Y3">
-            <v>10.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>27.930999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>26.366999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>27.948</v>
-          </cell>
-          <cell r="E4">
-            <v>27.896999999999998</v>
-          </cell>
-          <cell r="F4">
-            <v>28.764000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>24.003999999999998</v>
-          </cell>
-          <cell r="H4">
-            <v>20.994999999999997</v>
-          </cell>
-          <cell r="I4">
-            <v>19.805</v>
-          </cell>
-          <cell r="J4">
-            <v>17.764999999999997</v>
-          </cell>
-          <cell r="K4">
-            <v>16.166999999999998</v>
-          </cell>
-          <cell r="L4">
-            <v>13.26</v>
-          </cell>
-          <cell r="M4">
-            <v>13.311</v>
-          </cell>
-          <cell r="N4">
-            <v>14.535</v>
-          </cell>
-          <cell r="O4">
-            <v>14.535</v>
-          </cell>
-          <cell r="P4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>12.664999999999999</v>
-          </cell>
-          <cell r="R4">
-            <v>10.658999999999999</v>
-          </cell>
-          <cell r="S4">
-            <v>11.866</v>
-          </cell>
-          <cell r="T4">
-            <v>8.8569999999999993</v>
-          </cell>
-          <cell r="U4">
-            <v>8.7210000000000001</v>
-          </cell>
-          <cell r="V4">
-            <v>9.1969999999999992</v>
-          </cell>
-          <cell r="W4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="X4">
-            <v>18.257999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>18.257999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>50.01</v>
-          </cell>
-          <cell r="C2">
-            <v>45</v>
-          </cell>
-          <cell r="D2">
-            <v>49</v>
-          </cell>
-          <cell r="E2">
-            <v>37.31</v>
-          </cell>
-          <cell r="F2">
-            <v>37.31</v>
-          </cell>
-          <cell r="G2">
-            <v>48</v>
-          </cell>
-          <cell r="H2">
-            <v>50.01</v>
-          </cell>
-          <cell r="I2">
-            <v>50.01</v>
-          </cell>
-          <cell r="J2">
-            <v>48</v>
-          </cell>
-          <cell r="K2">
-            <v>46.88</v>
-          </cell>
-          <cell r="L2">
-            <v>47.88</v>
-          </cell>
-          <cell r="M2">
-            <v>47.88</v>
-          </cell>
-          <cell r="N2">
-            <v>47.88</v>
-          </cell>
-          <cell r="O2">
-            <v>47.88</v>
-          </cell>
-          <cell r="P2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.88</v>
-          </cell>
-          <cell r="R2">
-            <v>47.88</v>
-          </cell>
-          <cell r="S2">
-            <v>47.88</v>
-          </cell>
-          <cell r="T2">
-            <v>47.88</v>
-          </cell>
-          <cell r="U2">
-            <v>47.88</v>
-          </cell>
-          <cell r="V2">
-            <v>47.88</v>
-          </cell>
-          <cell r="W2">
-            <v>47.88</v>
-          </cell>
-          <cell r="X2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.88</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.67</v>
-          </cell>
-          <cell r="C3">
-            <v>32.44</v>
-          </cell>
-          <cell r="D3">
-            <v>32.44</v>
-          </cell>
-          <cell r="E3">
-            <v>32.44</v>
-          </cell>
-          <cell r="F3">
-            <v>32.44</v>
-          </cell>
-          <cell r="G3">
-            <v>32.44</v>
-          </cell>
-          <cell r="H3">
-            <v>32.44</v>
-          </cell>
-          <cell r="I3">
-            <v>32.44</v>
-          </cell>
-          <cell r="J3">
-            <v>47.67</v>
-          </cell>
-          <cell r="K3">
-            <v>36.44</v>
-          </cell>
-          <cell r="L3">
-            <v>37.44</v>
-          </cell>
-          <cell r="M3">
-            <v>37.44</v>
-          </cell>
-          <cell r="N3">
-            <v>37.44</v>
-          </cell>
-          <cell r="O3">
-            <v>37.44</v>
-          </cell>
-          <cell r="P3">
-            <v>37.44</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.69</v>
-          </cell>
-          <cell r="R3">
-            <v>47.67</v>
-          </cell>
-          <cell r="S3">
-            <v>44.4</v>
-          </cell>
-          <cell r="T3">
-            <v>44.4</v>
-          </cell>
-          <cell r="U3">
-            <v>44.4</v>
-          </cell>
-          <cell r="V3">
-            <v>44.4</v>
-          </cell>
-          <cell r="W3">
-            <v>47.67</v>
-          </cell>
-          <cell r="X3">
-            <v>47.67</v>
-          </cell>
-          <cell r="Y3">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>55</v>
-          </cell>
-          <cell r="C4">
-            <v>56.99</v>
-          </cell>
-          <cell r="D4">
-            <v>56.99</v>
-          </cell>
-          <cell r="E4">
-            <v>55</v>
-          </cell>
-          <cell r="F4">
-            <v>55</v>
-          </cell>
-          <cell r="G4">
-            <v>55</v>
-          </cell>
-          <cell r="H4">
-            <v>56.99</v>
-          </cell>
-          <cell r="I4">
-            <v>56.99</v>
-          </cell>
-          <cell r="J4">
-            <v>55</v>
-          </cell>
-          <cell r="K4">
-            <v>55</v>
-          </cell>
-          <cell r="L4">
-            <v>55</v>
-          </cell>
-          <cell r="M4">
-            <v>55</v>
-          </cell>
-          <cell r="N4">
-            <v>59.95</v>
-          </cell>
-          <cell r="O4">
-            <v>59.95</v>
-          </cell>
-          <cell r="P4">
-            <v>59.95</v>
-          </cell>
-          <cell r="Q4">
-            <v>59.95</v>
-          </cell>
-          <cell r="R4">
-            <v>59.95</v>
-          </cell>
-          <cell r="S4">
-            <v>55</v>
-          </cell>
-          <cell r="T4">
-            <v>55</v>
-          </cell>
-          <cell r="U4">
-            <v>55</v>
-          </cell>
-          <cell r="V4">
-            <v>55</v>
-          </cell>
-          <cell r="W4">
-            <v>55</v>
-          </cell>
-          <cell r="X4">
-            <v>55</v>
-          </cell>
-          <cell r="Y4">
-            <v>55</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>24.97</v>
-          </cell>
-          <cell r="C2">
-            <v>24.97</v>
-          </cell>
-          <cell r="D2">
-            <v>24.97</v>
-          </cell>
-          <cell r="E2">
-            <v>25.97</v>
-          </cell>
-          <cell r="F2">
-            <v>25.97</v>
-          </cell>
-          <cell r="G2">
-            <v>24.97</v>
-          </cell>
-          <cell r="H2">
-            <v>29.75</v>
-          </cell>
-          <cell r="I2">
-            <v>29.75</v>
-          </cell>
-          <cell r="J2">
-            <v>24.97</v>
-          </cell>
-          <cell r="K2">
-            <v>29.75</v>
-          </cell>
-          <cell r="L2">
-            <v>24.97</v>
-          </cell>
-          <cell r="M2">
-            <v>24.97</v>
-          </cell>
-          <cell r="N2">
-            <v>24.97</v>
-          </cell>
-          <cell r="O2">
-            <v>25.01</v>
-          </cell>
-          <cell r="P2">
-            <v>24.97</v>
-          </cell>
-          <cell r="Q2">
-            <v>24.97</v>
-          </cell>
-          <cell r="R2">
-            <v>29.75</v>
-          </cell>
-          <cell r="S2">
-            <v>29.75</v>
-          </cell>
-          <cell r="T2">
-            <v>29.75</v>
-          </cell>
-          <cell r="U2">
-            <v>29.75</v>
-          </cell>
-          <cell r="V2">
-            <v>29.75</v>
-          </cell>
-          <cell r="W2">
-            <v>29.75</v>
-          </cell>
-          <cell r="X2">
-            <v>29.75</v>
-          </cell>
-          <cell r="Y2">
-            <v>29.75</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>28.36</v>
-          </cell>
-          <cell r="C3">
-            <v>28.36</v>
-          </cell>
-          <cell r="D3">
-            <v>27.234999999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>28.86</v>
-          </cell>
-          <cell r="F3">
-            <v>28.86</v>
-          </cell>
-          <cell r="G3">
-            <v>28.36</v>
-          </cell>
-          <cell r="H3">
-            <v>37.325000000000003</v>
-          </cell>
-          <cell r="I3">
-            <v>30.75</v>
-          </cell>
-          <cell r="J3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>34.879999999999995</v>
-          </cell>
-          <cell r="L3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="M3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="O3">
-            <v>32.5</v>
-          </cell>
-          <cell r="P3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="Q3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="R3">
-            <v>34.885000000000005</v>
-          </cell>
-          <cell r="S3">
-            <v>36.875</v>
-          </cell>
-          <cell r="T3">
-            <v>36.875</v>
-          </cell>
-          <cell r="U3">
-            <v>36.875</v>
-          </cell>
-          <cell r="V3">
-            <v>36.875</v>
-          </cell>
-          <cell r="W3">
-            <v>35.370000000000005</v>
-          </cell>
-          <cell r="X3">
-            <v>30.75</v>
-          </cell>
-          <cell r="Y3">
-            <v>30.75</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.75</v>
-          </cell>
-          <cell r="C4">
-            <v>31.75</v>
-          </cell>
-          <cell r="D4">
-            <v>29.5</v>
-          </cell>
-          <cell r="E4">
-            <v>31.75</v>
-          </cell>
-          <cell r="F4">
-            <v>31.75</v>
-          </cell>
-          <cell r="G4">
-            <v>31.75</v>
-          </cell>
-          <cell r="H4">
-            <v>44.9</v>
-          </cell>
-          <cell r="I4">
-            <v>31.75</v>
-          </cell>
-          <cell r="J4">
-            <v>39.99</v>
-          </cell>
-          <cell r="K4">
-            <v>40.01</v>
-          </cell>
-          <cell r="L4">
-            <v>40.01</v>
-          </cell>
-          <cell r="M4">
-            <v>40.01</v>
-          </cell>
-          <cell r="N4">
-            <v>39.99</v>
-          </cell>
-          <cell r="O4">
-            <v>39.99</v>
-          </cell>
-          <cell r="P4">
-            <v>39.99</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.99</v>
-          </cell>
-          <cell r="R4">
-            <v>40.020000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>44</v>
-          </cell>
-          <cell r="T4">
-            <v>44</v>
-          </cell>
-          <cell r="U4">
-            <v>44</v>
-          </cell>
-          <cell r="V4">
-            <v>44</v>
-          </cell>
-          <cell r="W4">
-            <v>40.99</v>
-          </cell>
-          <cell r="X4">
-            <v>31.75</v>
-          </cell>
-          <cell r="Y4">
-            <v>31.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2">
-            <v>37.270000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>34.01</v>
-          </cell>
-          <cell r="D2">
-            <v>32.57</v>
-          </cell>
-          <cell r="E2">
-            <v>31.98</v>
-          </cell>
-          <cell r="F2">
-            <v>32.130000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>36.369999999999997</v>
-          </cell>
-          <cell r="H2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="I2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="J2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="K2">
-            <v>39.94</v>
-          </cell>
-          <cell r="L2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="M2">
-            <v>40.01</v>
-          </cell>
-          <cell r="N2">
-            <v>39.44</v>
-          </cell>
-          <cell r="O2">
-            <v>39.19</v>
-          </cell>
-          <cell r="P2">
-            <v>38.369999999999997</v>
-          </cell>
-          <cell r="Q2">
-            <v>37.19</v>
-          </cell>
-          <cell r="R2">
-            <v>34.979999999999997</v>
-          </cell>
-          <cell r="S2">
-            <v>37.369999999999997</v>
-          </cell>
-          <cell r="T2">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>39.9</v>
-          </cell>
-          <cell r="V2">
-            <v>39.04</v>
-          </cell>
-          <cell r="W2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="X2">
-            <v>39.76</v>
-          </cell>
-          <cell r="Y2">
-            <v>38.14</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>39.68</v>
-          </cell>
-          <cell r="C3">
-            <v>35</v>
-          </cell>
-          <cell r="D3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>36.9</v>
-          </cell>
-          <cell r="F3">
-            <v>37.61</v>
-          </cell>
-          <cell r="G3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="H3">
-            <v>37.21</v>
-          </cell>
-          <cell r="I3">
-            <v>40.18</v>
-          </cell>
-          <cell r="J3">
-            <v>42.84</v>
-          </cell>
-          <cell r="K3">
-            <v>43.03</v>
-          </cell>
-          <cell r="L3">
-            <v>43.45</v>
-          </cell>
-          <cell r="M3">
-            <v>44.27</v>
-          </cell>
-          <cell r="N3">
-            <v>44.97</v>
-          </cell>
-          <cell r="O3">
-            <v>46.14</v>
-          </cell>
-          <cell r="P3">
-            <v>44.39</v>
-          </cell>
-          <cell r="Q3">
-            <v>43.01</v>
-          </cell>
-          <cell r="R3">
-            <v>42.86</v>
-          </cell>
-          <cell r="S3">
-            <v>43.73</v>
-          </cell>
-          <cell r="T3">
-            <v>43.97</v>
-          </cell>
-          <cell r="U3">
-            <v>44.9</v>
-          </cell>
-          <cell r="V3">
-            <v>45.45</v>
-          </cell>
-          <cell r="W3">
-            <v>46.15</v>
-          </cell>
-          <cell r="X3">
-            <v>44.97</v>
-          </cell>
-          <cell r="Y3">
-            <v>42.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>33.39</v>
-          </cell>
-          <cell r="C4">
-            <v>30.82</v>
-          </cell>
-          <cell r="D4">
-            <v>28.89</v>
-          </cell>
-          <cell r="E4">
-            <v>28.43</v>
-          </cell>
-          <cell r="F4">
-            <v>29.41</v>
-          </cell>
-          <cell r="G4">
-            <v>34.39</v>
-          </cell>
-          <cell r="H4">
-            <v>45.24</v>
-          </cell>
-          <cell r="I4">
-            <v>42.92</v>
-          </cell>
-          <cell r="J4">
-            <v>44.88</v>
-          </cell>
-          <cell r="K4">
-            <v>44.3</v>
-          </cell>
-          <cell r="L4">
-            <v>41.06</v>
-          </cell>
-          <cell r="M4">
-            <v>39.9</v>
-          </cell>
-          <cell r="N4">
-            <v>44.18</v>
-          </cell>
-          <cell r="O4">
-            <v>45.18</v>
-          </cell>
-          <cell r="P4">
-            <v>44.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>44.35</v>
-          </cell>
-          <cell r="R4">
-            <v>44.35</v>
-          </cell>
-          <cell r="S4">
-            <v>44.88</v>
-          </cell>
-          <cell r="T4">
-            <v>46.18</v>
-          </cell>
-          <cell r="U4">
-            <v>47.88</v>
-          </cell>
-          <cell r="V4">
-            <v>51.18</v>
-          </cell>
-          <cell r="W4">
-            <v>55.69</v>
-          </cell>
-          <cell r="X4">
-            <v>50.77</v>
-          </cell>
-          <cell r="Y4">
-            <v>45</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D2">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E2">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F2">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G2">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H2">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I2">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J2">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L2">
-            <v>49.74</v>
-          </cell>
-          <cell r="M2">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N2">
-            <v>51.436</v>
-          </cell>
-          <cell r="O2">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P2">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q2">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R2">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S2">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T2">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U2">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X2">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y2">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C3">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D3">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E3">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F3">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G3">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H3">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I3">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J3">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K3">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L3">
-            <v>49.74</v>
-          </cell>
-          <cell r="M3">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N3">
-            <v>51.436</v>
-          </cell>
-          <cell r="O3">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P3">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q3">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R3">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S3">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T3">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U3">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V3">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y3">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C4">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D4">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E4">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F4">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G4">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H4">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I4">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J4">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L4">
-            <v>49.74</v>
-          </cell>
-          <cell r="M4">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N4">
-            <v>51.436</v>
-          </cell>
-          <cell r="O4">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P4">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R4">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S4">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T4">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U4">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V4">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X4">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y4">
-            <v>50.256</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="B2">
-            <v>10.26</v>
-          </cell>
-          <cell r="C2">
-            <v>10.909500000000001</v>
-          </cell>
-          <cell r="D2">
-            <v>10.084849999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>8.7750000000000004</v>
-          </cell>
-          <cell r="F2">
-            <v>7.9588000000000001</v>
-          </cell>
-          <cell r="G2">
-            <v>6.3310499999999994</v>
-          </cell>
-          <cell r="H2">
-            <v>5.706900000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>4.8929999999999998</v>
-          </cell>
-          <cell r="J2">
-            <v>4.0228999999999999</v>
-          </cell>
-          <cell r="K2">
-            <v>4.4879999999999995</v>
-          </cell>
-          <cell r="L2">
-            <v>4.2223500000000005</v>
-          </cell>
-          <cell r="M2">
-            <v>4.0441500000000001</v>
-          </cell>
-          <cell r="N2">
-            <v>3.6749999999999998</v>
-          </cell>
-          <cell r="O2">
-            <v>4.1912000000000003</v>
-          </cell>
-          <cell r="P2">
-            <v>4.4894500000000006</v>
-          </cell>
-          <cell r="Q2">
-            <v>3.9945499999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>2.9760000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>2.5608</v>
-          </cell>
-          <cell r="T2">
-            <v>3.0141000000000004</v>
-          </cell>
-          <cell r="U2">
-            <v>2.2196999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>3.6414</v>
-          </cell>
-          <cell r="W2">
-            <v>6.7825499999999996</v>
-          </cell>
-          <cell r="X2">
-            <v>7.5711999999999993</v>
-          </cell>
-          <cell r="Y2">
-            <v>6.9015499999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>8</v>
-          </cell>
-          <cell r="C3">
-            <v>7.99</v>
-          </cell>
-          <cell r="D3">
-            <v>7.76</v>
-          </cell>
-          <cell r="E3">
-            <v>8</v>
-          </cell>
-          <cell r="F3">
-            <v>11</v>
-          </cell>
-          <cell r="G3">
-            <v>8.5299999999999994</v>
-          </cell>
-          <cell r="H3">
-            <v>6.44</v>
-          </cell>
-          <cell r="I3">
-            <v>4.71</v>
-          </cell>
-          <cell r="J3">
-            <v>4.67</v>
-          </cell>
-          <cell r="K3">
-            <v>5.66</v>
-          </cell>
-          <cell r="L3">
-            <v>4.79</v>
-          </cell>
-          <cell r="M3">
-            <v>5.08</v>
-          </cell>
-          <cell r="N3">
-            <v>4.07</v>
-          </cell>
-          <cell r="O3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="P3">
-            <v>5.27</v>
-          </cell>
-          <cell r="Q3">
-            <v>4.63</v>
-          </cell>
-          <cell r="R3">
-            <v>4.41</v>
-          </cell>
-          <cell r="S3">
-            <v>3.49</v>
-          </cell>
-          <cell r="T3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="V3">
-            <v>4.97</v>
-          </cell>
-          <cell r="W3">
-            <v>8.57</v>
-          </cell>
-          <cell r="X3">
-            <v>8.25</v>
-          </cell>
-          <cell r="Y3">
-            <v>6.83</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>12.52</v>
-          </cell>
-          <cell r="C4">
-            <v>12.79</v>
-          </cell>
-          <cell r="D4">
-            <v>12.21</v>
-          </cell>
-          <cell r="E4">
-            <v>9.5500000000000007</v>
-          </cell>
-          <cell r="F4">
-            <v>4.76</v>
-          </cell>
-          <cell r="G4">
-            <v>4.26</v>
-          </cell>
-          <cell r="H4">
-            <v>4.75</v>
-          </cell>
-          <cell r="I4">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>3.54</v>
-          </cell>
-          <cell r="K4">
-            <v>3.69</v>
-          </cell>
-          <cell r="L4">
-            <v>3.74</v>
-          </cell>
-          <cell r="M4">
-            <v>3.09</v>
-          </cell>
-          <cell r="N4">
-            <v>3.43</v>
-          </cell>
-          <cell r="O4">
-            <v>3.62</v>
-          </cell>
-          <cell r="P4">
-            <v>3.62</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.28</v>
-          </cell>
-          <cell r="R4">
-            <v>1.79</v>
-          </cell>
-          <cell r="S4">
-            <v>1.79</v>
-          </cell>
-          <cell r="T4">
-            <v>1.47</v>
-          </cell>
-          <cell r="U4">
-            <v>2.23</v>
-          </cell>
-          <cell r="V4">
-            <v>2.17</v>
-          </cell>
-          <cell r="W4">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="X4">
-            <v>6.31</v>
-          </cell>
-          <cell r="Y4">
-            <v>7.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
-            <v>42.153333333333336</v>
-          </cell>
-          <cell r="C2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="D2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="E2">
-            <v>51.303333333333335</v>
-          </cell>
-          <cell r="F2">
-            <v>44.726666666666667</v>
-          </cell>
-          <cell r="G2">
-            <v>53.636666666666677</v>
-          </cell>
-          <cell r="H2">
-            <v>52.483333333333327</v>
-          </cell>
-          <cell r="I2">
-            <v>40.266666666666673</v>
-          </cell>
-          <cell r="J2">
-            <v>40.466666666666669</v>
-          </cell>
-          <cell r="K2">
-            <v>59.133333333333333</v>
-          </cell>
-          <cell r="L2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="M2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="N2">
-            <v>59.5</v>
-          </cell>
-          <cell r="O2">
-            <v>59.5</v>
-          </cell>
-          <cell r="P2">
-            <v>44.09</v>
-          </cell>
-          <cell r="Q2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="R2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>41.06666666666667</v>
-          </cell>
-          <cell r="T2">
-            <v>40.866666666666667</v>
-          </cell>
-          <cell r="U2">
-            <v>44.09</v>
-          </cell>
-          <cell r="V2">
-            <v>40.6</v>
-          </cell>
-          <cell r="W2">
-            <v>45.860000000000007</v>
-          </cell>
-          <cell r="X2">
-            <v>37.6</v>
-          </cell>
-          <cell r="Y2">
-            <v>37.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>36.216666666666669</v>
-          </cell>
-          <cell r="C3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="D3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="E3">
-            <v>45.351666666666667</v>
-          </cell>
-          <cell r="F3">
-            <v>40.36333333333333</v>
-          </cell>
-          <cell r="G3">
-            <v>61.338333333333338</v>
-          </cell>
-          <cell r="H3">
-            <v>60.76166666666667</v>
-          </cell>
-          <cell r="I3">
-            <v>39.833333333333336</v>
-          </cell>
-          <cell r="J3">
-            <v>40.233333333333334</v>
-          </cell>
-          <cell r="K3">
-            <v>49.266666666666666</v>
-          </cell>
-          <cell r="L3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="M3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="N3">
-            <v>49.45</v>
-          </cell>
-          <cell r="O3">
-            <v>49.45</v>
-          </cell>
-          <cell r="P3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.1</v>
-          </cell>
-          <cell r="R3">
-            <v>40.400000000000006</v>
-          </cell>
-          <cell r="S3">
-            <v>40.63333333333334</v>
-          </cell>
-          <cell r="T3">
-            <v>40.533333333333331</v>
-          </cell>
-          <cell r="U3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>40</v>
-          </cell>
-          <cell r="W3">
-            <v>42.63</v>
-          </cell>
-          <cell r="X3">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="Y3">
-            <v>38.799999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>30.28</v>
-          </cell>
-          <cell r="C4">
-            <v>31.28</v>
-          </cell>
-          <cell r="D4">
-            <v>31.28</v>
-          </cell>
-          <cell r="E4">
-            <v>39.4</v>
-          </cell>
-          <cell r="F4">
-            <v>36</v>
-          </cell>
-          <cell r="G4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="H4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="I4">
-            <v>39.4</v>
-          </cell>
-          <cell r="J4">
-            <v>40</v>
-          </cell>
-          <cell r="K4">
-            <v>39.4</v>
-          </cell>
-          <cell r="L4">
-            <v>39.4</v>
-          </cell>
-          <cell r="M4">
-            <v>39.4</v>
-          </cell>
-          <cell r="N4">
-            <v>39.4</v>
-          </cell>
-          <cell r="O4">
-            <v>39.4</v>
-          </cell>
-          <cell r="P4">
-            <v>39.4</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.4</v>
-          </cell>
-          <cell r="R4">
-            <v>40</v>
-          </cell>
-          <cell r="S4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="T4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="U4">
-            <v>39.4</v>
-          </cell>
-          <cell r="V4">
-            <v>39.4</v>
-          </cell>
-          <cell r="W4">
-            <v>39.4</v>
-          </cell>
-          <cell r="X4">
-            <v>40</v>
-          </cell>
-          <cell r="Y4">
-            <v>40</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>24.09</v>
-          </cell>
-          <cell r="C2">
-            <v>24.09</v>
-          </cell>
-          <cell r="D2">
-            <v>24.09</v>
-          </cell>
-          <cell r="E2">
-            <v>24.09</v>
-          </cell>
-          <cell r="F2">
-            <v>29.04</v>
-          </cell>
-          <cell r="G2">
-            <v>29.03</v>
-          </cell>
-          <cell r="H2">
-            <v>29.05</v>
-          </cell>
-          <cell r="I2">
-            <v>29.04</v>
-          </cell>
-          <cell r="J2">
-            <v>29.04</v>
-          </cell>
-          <cell r="K2">
-            <v>29.05</v>
-          </cell>
-          <cell r="L2">
-            <v>32</v>
-          </cell>
-          <cell r="M2">
-            <v>29.03</v>
-          </cell>
-          <cell r="N2">
-            <v>29.03</v>
-          </cell>
-          <cell r="O2">
-            <v>29.03</v>
-          </cell>
-          <cell r="P2">
-            <v>32</v>
-          </cell>
-          <cell r="Q2">
-            <v>29.01</v>
-          </cell>
-          <cell r="R2">
-            <v>32</v>
-          </cell>
-          <cell r="S2">
-            <v>29.01</v>
-          </cell>
-          <cell r="T2">
-            <v>29.01</v>
-          </cell>
-          <cell r="U2">
-            <v>29.01</v>
-          </cell>
-          <cell r="V2">
-            <v>29.01</v>
-          </cell>
-          <cell r="W2">
-            <v>29.01</v>
-          </cell>
-          <cell r="X2">
-            <v>29.01</v>
-          </cell>
-          <cell r="Y2">
-            <v>27.98</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="C3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>31.63</v>
-          </cell>
-          <cell r="G3">
-            <v>23.537500000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>29.28</v>
-          </cell>
-          <cell r="I3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="J3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="K3">
-            <v>30.950000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="M3">
-            <v>30.935000000000002</v>
-          </cell>
-          <cell r="N3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="O3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="P3">
-            <v>31.4925</v>
-          </cell>
-          <cell r="Q3">
-            <v>30.92</v>
-          </cell>
-          <cell r="R3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="S3">
-            <v>30.92</v>
-          </cell>
-          <cell r="T3">
-            <v>30.92</v>
-          </cell>
-          <cell r="U3">
-            <v>30.92</v>
-          </cell>
-          <cell r="V3">
-            <v>30.92</v>
-          </cell>
-          <cell r="W3">
-            <v>29.25</v>
-          </cell>
-          <cell r="X3">
-            <v>28.305</v>
-          </cell>
-          <cell r="Y3">
-            <v>27.532499999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="F4">
-            <v>34.22</v>
-          </cell>
-          <cell r="G4">
-            <v>18.045000000000002</v>
-          </cell>
-          <cell r="H4">
-            <v>29.509999999999998</v>
-          </cell>
-          <cell r="I4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="J4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="K4">
-            <v>32.85</v>
-          </cell>
-          <cell r="L4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="M4">
-            <v>32.840000000000003</v>
-          </cell>
-          <cell r="N4">
-            <v>29.5</v>
-          </cell>
-          <cell r="O4">
-            <v>29.5</v>
-          </cell>
-          <cell r="P4">
-            <v>30.984999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>32.83</v>
-          </cell>
-          <cell r="R4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>32.83</v>
-          </cell>
-          <cell r="T4">
-            <v>32.83</v>
-          </cell>
-          <cell r="U4">
-            <v>32.83</v>
-          </cell>
-          <cell r="V4">
-            <v>32.83</v>
-          </cell>
-          <cell r="W4">
-            <v>29.490000000000002</v>
-          </cell>
-          <cell r="X4">
-            <v>27.6</v>
-          </cell>
-          <cell r="Y4">
-            <v>27.085000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2435,48 +230,2247 @@
       <sheetName val="Tertiary Reserve Down, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>2020</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>43.71</v>
+          </cell>
+          <cell r="C2">
+            <v>40.784999999999997</v>
+          </cell>
+          <cell r="D2">
+            <v>39.052499999999995</v>
+          </cell>
+          <cell r="E2">
+            <v>36.622500000000002</v>
+          </cell>
+          <cell r="F2">
+            <v>37.715000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>40.745000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>49.295000000000002</v>
+          </cell>
+          <cell r="I2">
+            <v>51.59</v>
+          </cell>
+          <cell r="J2">
+            <v>54.25</v>
+          </cell>
+          <cell r="K2">
+            <v>53.837499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>52.800000000000004</v>
+          </cell>
+          <cell r="M2">
+            <v>52.542499999999997</v>
+          </cell>
+          <cell r="N2">
+            <v>50.507499999999993</v>
+          </cell>
+          <cell r="O2">
+            <v>49.795000000000002</v>
+          </cell>
+          <cell r="P2">
+            <v>48.817500000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>48.914999999999999</v>
+          </cell>
+          <cell r="R2">
+            <v>49.67</v>
+          </cell>
+          <cell r="S2">
+            <v>52.125</v>
+          </cell>
+          <cell r="T2">
+            <v>54.620000000000005</v>
+          </cell>
+          <cell r="U2">
+            <v>55.040000000000006</v>
+          </cell>
+          <cell r="V2">
+            <v>53.769999999999996</v>
+          </cell>
+          <cell r="W2">
+            <v>50.392499999999998</v>
+          </cell>
+          <cell r="X2">
+            <v>45.482500000000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>42.69</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>40.82</v>
+          </cell>
+          <cell r="C3">
+            <v>38.53</v>
+          </cell>
+          <cell r="D3">
+            <v>36.034999999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>34.424999999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>36.340000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>38.28</v>
+          </cell>
+          <cell r="H3">
+            <v>44.2</v>
+          </cell>
+          <cell r="I3">
+            <v>46.17</v>
+          </cell>
+          <cell r="J3">
+            <v>48.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>48.805</v>
+          </cell>
+          <cell r="L3">
+            <v>47.400000000000006</v>
+          </cell>
+          <cell r="M3">
+            <v>46.424999999999997</v>
+          </cell>
+          <cell r="N3">
+            <v>45.004999999999995</v>
+          </cell>
+          <cell r="O3">
+            <v>44.53</v>
+          </cell>
+          <cell r="P3">
+            <v>42.545000000000002</v>
+          </cell>
+          <cell r="Q3">
+            <v>42.21</v>
+          </cell>
+          <cell r="R3">
+            <v>43.08</v>
+          </cell>
+          <cell r="S3">
+            <v>47.5</v>
+          </cell>
+          <cell r="T3">
+            <v>49.730000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>50.510000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>50.79</v>
+          </cell>
+          <cell r="W3">
+            <v>48.534999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>43.954999999999998</v>
+          </cell>
+          <cell r="Y3">
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
+            <v>46.6</v>
+          </cell>
+          <cell r="C4">
+            <v>43.04</v>
+          </cell>
+          <cell r="D4">
+            <v>42.07</v>
+          </cell>
+          <cell r="E4">
+            <v>38.82</v>
+          </cell>
+          <cell r="F4">
+            <v>39.090000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>43.21</v>
+          </cell>
+          <cell r="H4">
+            <v>54.39</v>
+          </cell>
+          <cell r="I4">
+            <v>57.01</v>
+          </cell>
+          <cell r="J4">
+            <v>60.02</v>
+          </cell>
+          <cell r="K4">
+            <v>58.87</v>
+          </cell>
+          <cell r="L4">
+            <v>58.2</v>
+          </cell>
+          <cell r="M4">
+            <v>58.66</v>
+          </cell>
+          <cell r="N4">
+            <v>56.01</v>
+          </cell>
+          <cell r="O4">
+            <v>55.06</v>
+          </cell>
+          <cell r="P4">
+            <v>55.09</v>
+          </cell>
+          <cell r="Q4">
+            <v>55.62</v>
+          </cell>
+          <cell r="R4">
+            <v>56.26</v>
+          </cell>
+          <cell r="S4">
+            <v>56.75</v>
+          </cell>
+          <cell r="T4">
+            <v>59.51</v>
+          </cell>
+          <cell r="U4">
+            <v>59.57</v>
+          </cell>
+          <cell r="V4">
+            <v>56.75</v>
+          </cell>
+          <cell r="W4">
+            <v>52.25</v>
+          </cell>
+          <cell r="X4">
+            <v>47.01</v>
+          </cell>
+          <cell r="Y4">
+            <v>43.67</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C2">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D2">
+            <v>46.863</v>
+          </cell>
+          <cell r="E2">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I2">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J2">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K2">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M2">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N2">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O2">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P2">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R2">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S2">
+            <v>62.55</v>
+          </cell>
+          <cell r="T2">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V2">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X2">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y2">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D3">
+            <v>46.863</v>
+          </cell>
+          <cell r="E3">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F3">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H3">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I3">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K3">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L3">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M3">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O3">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P3">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q3">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R3">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S3">
+            <v>62.55</v>
+          </cell>
+          <cell r="T3">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U3">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V3">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X3">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y3">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C4">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D4">
+            <v>46.863</v>
+          </cell>
+          <cell r="E4">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F4">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H4">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I4">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J4">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K4">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L4">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M4">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N4">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O4">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P4">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q4">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R4">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S4">
+            <v>62.55</v>
+          </cell>
+          <cell r="T4">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U4">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V4">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X4">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y4">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>25.342275000000001</v>
+          </cell>
+          <cell r="C2">
+            <v>24.594854999999999</v>
+          </cell>
+          <cell r="D2">
+            <v>27.759217499999998</v>
+          </cell>
+          <cell r="E2">
+            <v>30.54975</v>
+          </cell>
+          <cell r="F2">
+            <v>32.125005000000002</v>
+          </cell>
+          <cell r="G2">
+            <v>29.361535</v>
+          </cell>
+          <cell r="H2">
+            <v>27.199200000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>29.454137500000002</v>
+          </cell>
+          <cell r="J2">
+            <v>25.75685</v>
+          </cell>
+          <cell r="K2">
+            <v>23.352209999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>22.9788</v>
+          </cell>
+          <cell r="M2">
+            <v>20.269462499999999</v>
+          </cell>
+          <cell r="N2">
+            <v>22.549799999999994</v>
+          </cell>
+          <cell r="O2">
+            <v>18.743400000000001</v>
+          </cell>
+          <cell r="P2">
+            <v>19.593999999999998</v>
+          </cell>
+          <cell r="Q2">
+            <v>16.172449999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>12.758287500000002</v>
+          </cell>
+          <cell r="S2">
+            <v>14.871139999999999</v>
+          </cell>
+          <cell r="T2">
+            <v>10.08586</v>
+          </cell>
+          <cell r="U2">
+            <v>8.7737250000000007</v>
+          </cell>
+          <cell r="V2">
+            <v>9.8389550000000003</v>
+          </cell>
+          <cell r="W2">
+            <v>13.74175</v>
+          </cell>
+          <cell r="X2">
+            <v>16.117327500000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>14.23521</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>20.34</v>
+          </cell>
+          <cell r="C3">
+            <v>21.39</v>
+          </cell>
+          <cell r="D3">
+            <v>29.287499999999998</v>
+          </cell>
+          <cell r="E3">
+            <v>33.202500000000001</v>
+          </cell>
+          <cell r="F3">
+            <v>36.134999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>35.917500000000004</v>
+          </cell>
+          <cell r="H3">
+            <v>35.67</v>
+          </cell>
+          <cell r="I3">
+            <v>37.387500000000003</v>
+          </cell>
+          <cell r="J3">
+            <v>34.799999999999997</v>
+          </cell>
+          <cell r="K3">
+            <v>30.075000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>30.93</v>
+          </cell>
+          <cell r="M3">
+            <v>25.297499999999999</v>
+          </cell>
+          <cell r="N3">
+            <v>28.83</v>
+          </cell>
+          <cell r="O3">
+            <v>21.509999999999998</v>
+          </cell>
+          <cell r="P3">
+            <v>22.65</v>
+          </cell>
+          <cell r="Q3">
+            <v>20.34</v>
+          </cell>
+          <cell r="R3">
+            <v>13.642500000000002</v>
+          </cell>
+          <cell r="S3">
+            <v>17.009999999999998</v>
+          </cell>
+          <cell r="T3">
+            <v>11.115</v>
+          </cell>
+          <cell r="U3">
+            <v>9.75</v>
+          </cell>
+          <cell r="V3">
+            <v>10.8825</v>
+          </cell>
+          <cell r="W3">
+            <v>12.78</v>
+          </cell>
+          <cell r="X3">
+            <v>13.657500000000001</v>
+          </cell>
+          <cell r="Y3">
+            <v>10.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>27.930999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>26.366999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>27.948</v>
+          </cell>
+          <cell r="E4">
+            <v>27.896999999999998</v>
+          </cell>
+          <cell r="F4">
+            <v>28.764000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>24.003999999999998</v>
+          </cell>
+          <cell r="H4">
+            <v>20.994999999999997</v>
+          </cell>
+          <cell r="I4">
+            <v>19.805</v>
+          </cell>
+          <cell r="J4">
+            <v>17.764999999999997</v>
+          </cell>
+          <cell r="K4">
+            <v>16.166999999999998</v>
+          </cell>
+          <cell r="L4">
+            <v>13.26</v>
+          </cell>
+          <cell r="M4">
+            <v>13.311</v>
+          </cell>
+          <cell r="N4">
+            <v>14.535</v>
+          </cell>
+          <cell r="O4">
+            <v>14.535</v>
+          </cell>
+          <cell r="P4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>12.664999999999999</v>
+          </cell>
+          <cell r="R4">
+            <v>10.658999999999999</v>
+          </cell>
+          <cell r="S4">
+            <v>11.866</v>
+          </cell>
+          <cell r="T4">
+            <v>8.8569999999999993</v>
+          </cell>
+          <cell r="U4">
+            <v>8.7210000000000001</v>
+          </cell>
+          <cell r="V4">
+            <v>9.1969999999999992</v>
+          </cell>
+          <cell r="W4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="X4">
+            <v>18.257999999999999</v>
+          </cell>
+          <cell r="Y4">
+            <v>18.257999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>50.01</v>
+          </cell>
+          <cell r="C2">
+            <v>45</v>
+          </cell>
+          <cell r="D2">
+            <v>49</v>
+          </cell>
+          <cell r="E2">
+            <v>37.31</v>
+          </cell>
+          <cell r="F2">
+            <v>37.31</v>
+          </cell>
+          <cell r="G2">
+            <v>48</v>
+          </cell>
+          <cell r="H2">
+            <v>50.01</v>
+          </cell>
+          <cell r="I2">
+            <v>50.01</v>
+          </cell>
+          <cell r="J2">
+            <v>48</v>
+          </cell>
+          <cell r="K2">
+            <v>46.88</v>
+          </cell>
+          <cell r="L2">
+            <v>47.88</v>
+          </cell>
+          <cell r="M2">
+            <v>47.88</v>
+          </cell>
+          <cell r="N2">
+            <v>47.88</v>
+          </cell>
+          <cell r="O2">
+            <v>47.88</v>
+          </cell>
+          <cell r="P2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.88</v>
+          </cell>
+          <cell r="R2">
+            <v>47.88</v>
+          </cell>
+          <cell r="S2">
+            <v>47.88</v>
+          </cell>
+          <cell r="T2">
+            <v>47.88</v>
+          </cell>
+          <cell r="U2">
+            <v>47.88</v>
+          </cell>
+          <cell r="V2">
+            <v>47.88</v>
+          </cell>
+          <cell r="W2">
+            <v>47.88</v>
+          </cell>
+          <cell r="X2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.88</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.67</v>
+          </cell>
+          <cell r="C3">
+            <v>32.44</v>
+          </cell>
+          <cell r="D3">
+            <v>32.44</v>
+          </cell>
+          <cell r="E3">
+            <v>32.44</v>
+          </cell>
+          <cell r="F3">
+            <v>32.44</v>
+          </cell>
+          <cell r="G3">
+            <v>32.44</v>
+          </cell>
+          <cell r="H3">
+            <v>32.44</v>
+          </cell>
+          <cell r="I3">
+            <v>32.44</v>
+          </cell>
+          <cell r="J3">
+            <v>47.67</v>
+          </cell>
+          <cell r="K3">
+            <v>36.44</v>
+          </cell>
+          <cell r="L3">
+            <v>37.44</v>
+          </cell>
+          <cell r="M3">
+            <v>37.44</v>
+          </cell>
+          <cell r="N3">
+            <v>37.44</v>
+          </cell>
+          <cell r="O3">
+            <v>37.44</v>
+          </cell>
+          <cell r="P3">
+            <v>37.44</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.69</v>
+          </cell>
+          <cell r="R3">
+            <v>47.67</v>
+          </cell>
+          <cell r="S3">
+            <v>44.4</v>
+          </cell>
+          <cell r="T3">
+            <v>44.4</v>
+          </cell>
+          <cell r="U3">
+            <v>44.4</v>
+          </cell>
+          <cell r="V3">
+            <v>44.4</v>
+          </cell>
+          <cell r="W3">
+            <v>47.67</v>
+          </cell>
+          <cell r="X3">
+            <v>47.67</v>
+          </cell>
+          <cell r="Y3">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>55</v>
+          </cell>
+          <cell r="C4">
+            <v>56.99</v>
+          </cell>
+          <cell r="D4">
+            <v>56.99</v>
+          </cell>
+          <cell r="E4">
+            <v>55</v>
+          </cell>
+          <cell r="F4">
+            <v>55</v>
+          </cell>
+          <cell r="G4">
+            <v>55</v>
+          </cell>
+          <cell r="H4">
+            <v>56.99</v>
+          </cell>
+          <cell r="I4">
+            <v>56.99</v>
+          </cell>
+          <cell r="J4">
+            <v>55</v>
+          </cell>
+          <cell r="K4">
+            <v>55</v>
+          </cell>
+          <cell r="L4">
+            <v>55</v>
+          </cell>
+          <cell r="M4">
+            <v>55</v>
+          </cell>
+          <cell r="N4">
+            <v>59.95</v>
+          </cell>
+          <cell r="O4">
+            <v>59.95</v>
+          </cell>
+          <cell r="P4">
+            <v>59.95</v>
+          </cell>
+          <cell r="Q4">
+            <v>59.95</v>
+          </cell>
+          <cell r="R4">
+            <v>59.95</v>
+          </cell>
+          <cell r="S4">
+            <v>55</v>
+          </cell>
+          <cell r="T4">
+            <v>55</v>
+          </cell>
+          <cell r="U4">
+            <v>55</v>
+          </cell>
+          <cell r="V4">
+            <v>55</v>
+          </cell>
+          <cell r="W4">
+            <v>55</v>
+          </cell>
+          <cell r="X4">
+            <v>55</v>
+          </cell>
+          <cell r="Y4">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>24.97</v>
+          </cell>
+          <cell r="C2">
+            <v>24.97</v>
+          </cell>
+          <cell r="D2">
+            <v>24.97</v>
+          </cell>
+          <cell r="E2">
+            <v>25.97</v>
+          </cell>
+          <cell r="F2">
+            <v>25.97</v>
+          </cell>
+          <cell r="G2">
+            <v>24.97</v>
+          </cell>
+          <cell r="H2">
+            <v>29.75</v>
+          </cell>
+          <cell r="I2">
+            <v>29.75</v>
+          </cell>
+          <cell r="J2">
+            <v>24.97</v>
+          </cell>
+          <cell r="K2">
+            <v>29.75</v>
+          </cell>
+          <cell r="L2">
+            <v>24.97</v>
+          </cell>
+          <cell r="M2">
+            <v>24.97</v>
+          </cell>
+          <cell r="N2">
+            <v>24.97</v>
+          </cell>
+          <cell r="O2">
+            <v>25.01</v>
+          </cell>
+          <cell r="P2">
+            <v>24.97</v>
+          </cell>
+          <cell r="Q2">
+            <v>24.97</v>
+          </cell>
+          <cell r="R2">
+            <v>29.75</v>
+          </cell>
+          <cell r="S2">
+            <v>29.75</v>
+          </cell>
+          <cell r="T2">
+            <v>29.75</v>
+          </cell>
+          <cell r="U2">
+            <v>29.75</v>
+          </cell>
+          <cell r="V2">
+            <v>29.75</v>
+          </cell>
+          <cell r="W2">
+            <v>29.75</v>
+          </cell>
+          <cell r="X2">
+            <v>29.75</v>
+          </cell>
+          <cell r="Y2">
+            <v>29.75</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>28.36</v>
+          </cell>
+          <cell r="C3">
+            <v>28.36</v>
+          </cell>
+          <cell r="D3">
+            <v>27.234999999999999</v>
+          </cell>
+          <cell r="E3">
+            <v>28.86</v>
+          </cell>
+          <cell r="F3">
+            <v>28.86</v>
+          </cell>
+          <cell r="G3">
+            <v>28.36</v>
+          </cell>
+          <cell r="H3">
+            <v>37.325000000000003</v>
+          </cell>
+          <cell r="I3">
+            <v>30.75</v>
+          </cell>
+          <cell r="J3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>34.879999999999995</v>
+          </cell>
+          <cell r="L3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="M3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="O3">
+            <v>32.5</v>
+          </cell>
+          <cell r="P3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="Q3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="R3">
+            <v>34.885000000000005</v>
+          </cell>
+          <cell r="S3">
+            <v>36.875</v>
+          </cell>
+          <cell r="T3">
+            <v>36.875</v>
+          </cell>
+          <cell r="U3">
+            <v>36.875</v>
+          </cell>
+          <cell r="V3">
+            <v>36.875</v>
+          </cell>
+          <cell r="W3">
+            <v>35.370000000000005</v>
+          </cell>
+          <cell r="X3">
+            <v>30.75</v>
+          </cell>
+          <cell r="Y3">
+            <v>30.75</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.75</v>
+          </cell>
+          <cell r="C4">
+            <v>31.75</v>
+          </cell>
+          <cell r="D4">
+            <v>29.5</v>
+          </cell>
+          <cell r="E4">
+            <v>31.75</v>
+          </cell>
+          <cell r="F4">
+            <v>31.75</v>
+          </cell>
+          <cell r="G4">
+            <v>31.75</v>
+          </cell>
+          <cell r="H4">
+            <v>44.9</v>
+          </cell>
+          <cell r="I4">
+            <v>31.75</v>
+          </cell>
+          <cell r="J4">
+            <v>39.99</v>
+          </cell>
+          <cell r="K4">
+            <v>40.01</v>
+          </cell>
+          <cell r="L4">
+            <v>40.01</v>
+          </cell>
+          <cell r="M4">
+            <v>40.01</v>
+          </cell>
+          <cell r="N4">
+            <v>39.99</v>
+          </cell>
+          <cell r="O4">
+            <v>39.99</v>
+          </cell>
+          <cell r="P4">
+            <v>39.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.99</v>
+          </cell>
+          <cell r="R4">
+            <v>40.020000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>44</v>
+          </cell>
+          <cell r="T4">
+            <v>44</v>
+          </cell>
+          <cell r="U4">
+            <v>44</v>
+          </cell>
+          <cell r="V4">
+            <v>44</v>
+          </cell>
+          <cell r="W4">
+            <v>40.99</v>
+          </cell>
+          <cell r="X4">
+            <v>31.75</v>
+          </cell>
+          <cell r="Y4">
+            <v>31.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>37.270000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>34.01</v>
+          </cell>
+          <cell r="D2">
+            <v>32.57</v>
+          </cell>
+          <cell r="E2">
+            <v>31.98</v>
+          </cell>
+          <cell r="F2">
+            <v>32.130000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>36.369999999999997</v>
+          </cell>
+          <cell r="H2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="I2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="J2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="K2">
+            <v>39.94</v>
+          </cell>
+          <cell r="L2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="M2">
+            <v>40.01</v>
+          </cell>
+          <cell r="N2">
+            <v>39.44</v>
+          </cell>
+          <cell r="O2">
+            <v>39.19</v>
+          </cell>
+          <cell r="P2">
+            <v>38.369999999999997</v>
+          </cell>
+          <cell r="Q2">
+            <v>37.19</v>
+          </cell>
+          <cell r="R2">
+            <v>34.979999999999997</v>
+          </cell>
+          <cell r="S2">
+            <v>37.369999999999997</v>
+          </cell>
+          <cell r="T2">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>39.9</v>
+          </cell>
+          <cell r="V2">
+            <v>39.04</v>
+          </cell>
+          <cell r="W2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="X2">
+            <v>39.76</v>
+          </cell>
+          <cell r="Y2">
+            <v>38.14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>39.68</v>
+          </cell>
+          <cell r="C3">
+            <v>35</v>
+          </cell>
+          <cell r="D3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>36.9</v>
+          </cell>
+          <cell r="F3">
+            <v>37.61</v>
+          </cell>
+          <cell r="G3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="H3">
+            <v>37.21</v>
+          </cell>
+          <cell r="I3">
+            <v>40.18</v>
+          </cell>
+          <cell r="J3">
+            <v>42.84</v>
+          </cell>
+          <cell r="K3">
+            <v>43.03</v>
+          </cell>
+          <cell r="L3">
+            <v>43.45</v>
+          </cell>
+          <cell r="M3">
+            <v>44.27</v>
+          </cell>
+          <cell r="N3">
+            <v>44.97</v>
+          </cell>
+          <cell r="O3">
+            <v>46.14</v>
+          </cell>
+          <cell r="P3">
+            <v>44.39</v>
+          </cell>
+          <cell r="Q3">
+            <v>43.01</v>
+          </cell>
+          <cell r="R3">
+            <v>42.86</v>
+          </cell>
+          <cell r="S3">
+            <v>43.73</v>
+          </cell>
+          <cell r="T3">
+            <v>43.97</v>
+          </cell>
+          <cell r="U3">
+            <v>44.9</v>
+          </cell>
+          <cell r="V3">
+            <v>45.45</v>
+          </cell>
+          <cell r="W3">
+            <v>46.15</v>
+          </cell>
+          <cell r="X3">
+            <v>44.97</v>
+          </cell>
+          <cell r="Y3">
+            <v>42.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>33.39</v>
+          </cell>
+          <cell r="C4">
+            <v>30.82</v>
+          </cell>
+          <cell r="D4">
+            <v>28.89</v>
+          </cell>
+          <cell r="E4">
+            <v>28.43</v>
+          </cell>
+          <cell r="F4">
+            <v>29.41</v>
+          </cell>
+          <cell r="G4">
+            <v>34.39</v>
+          </cell>
+          <cell r="H4">
+            <v>45.24</v>
+          </cell>
+          <cell r="I4">
+            <v>42.92</v>
+          </cell>
+          <cell r="J4">
+            <v>44.88</v>
+          </cell>
+          <cell r="K4">
+            <v>44.3</v>
+          </cell>
+          <cell r="L4">
+            <v>41.06</v>
+          </cell>
+          <cell r="M4">
+            <v>39.9</v>
+          </cell>
+          <cell r="N4">
+            <v>44.18</v>
+          </cell>
+          <cell r="O4">
+            <v>45.18</v>
+          </cell>
+          <cell r="P4">
+            <v>44.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>44.35</v>
+          </cell>
+          <cell r="R4">
+            <v>44.35</v>
+          </cell>
+          <cell r="S4">
+            <v>44.88</v>
+          </cell>
+          <cell r="T4">
+            <v>46.18</v>
+          </cell>
+          <cell r="U4">
+            <v>47.88</v>
+          </cell>
+          <cell r="V4">
+            <v>51.18</v>
+          </cell>
+          <cell r="W4">
+            <v>55.69</v>
+          </cell>
+          <cell r="X4">
+            <v>50.77</v>
+          </cell>
+          <cell r="Y4">
+            <v>45</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D2">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E2">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G2">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H2">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I2">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J2">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L2">
+            <v>49.74</v>
+          </cell>
+          <cell r="M2">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N2">
+            <v>51.436</v>
+          </cell>
+          <cell r="O2">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P2">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q2">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R2">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S2">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T2">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U2">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X2">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y2">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C3">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D3">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E3">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F3">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G3">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H3">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I3">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J3">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L3">
+            <v>49.74</v>
+          </cell>
+          <cell r="M3">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N3">
+            <v>51.436</v>
+          </cell>
+          <cell r="O3">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P3">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R3">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S3">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T3">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U3">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V3">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D4">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E4">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G4">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H4">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J4">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K4">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L4">
+            <v>49.74</v>
+          </cell>
+          <cell r="M4">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>51.436</v>
+          </cell>
+          <cell r="O4">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P4">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R4">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S4">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T4">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U4">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V4">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>10.26</v>
+          </cell>
+          <cell r="C2">
+            <v>10.909500000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>10.084849999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>8.7750000000000004</v>
+          </cell>
+          <cell r="F2">
+            <v>7.9588000000000001</v>
+          </cell>
+          <cell r="G2">
+            <v>6.3310499999999994</v>
+          </cell>
+          <cell r="H2">
+            <v>5.706900000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>4.8929999999999998</v>
+          </cell>
+          <cell r="J2">
+            <v>4.0228999999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>4.4879999999999995</v>
+          </cell>
+          <cell r="L2">
+            <v>4.2223500000000005</v>
+          </cell>
+          <cell r="M2">
+            <v>4.0441500000000001</v>
+          </cell>
+          <cell r="N2">
+            <v>3.6749999999999998</v>
+          </cell>
+          <cell r="O2">
+            <v>4.1912000000000003</v>
+          </cell>
+          <cell r="P2">
+            <v>4.4894500000000006</v>
+          </cell>
+          <cell r="Q2">
+            <v>3.9945499999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>2.9760000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>2.5608</v>
+          </cell>
+          <cell r="T2">
+            <v>3.0141000000000004</v>
+          </cell>
+          <cell r="U2">
+            <v>2.2196999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>3.6414</v>
+          </cell>
+          <cell r="W2">
+            <v>6.7825499999999996</v>
+          </cell>
+          <cell r="X2">
+            <v>7.5711999999999993</v>
+          </cell>
+          <cell r="Y2">
+            <v>6.9015499999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8</v>
+          </cell>
+          <cell r="C3">
+            <v>7.99</v>
+          </cell>
+          <cell r="D3">
+            <v>7.76</v>
+          </cell>
+          <cell r="E3">
+            <v>8</v>
+          </cell>
+          <cell r="F3">
+            <v>11</v>
+          </cell>
+          <cell r="G3">
+            <v>8.5299999999999994</v>
+          </cell>
+          <cell r="H3">
+            <v>6.44</v>
+          </cell>
+          <cell r="I3">
+            <v>4.71</v>
+          </cell>
+          <cell r="J3">
+            <v>4.67</v>
+          </cell>
+          <cell r="K3">
+            <v>5.66</v>
+          </cell>
+          <cell r="L3">
+            <v>4.79</v>
+          </cell>
+          <cell r="M3">
+            <v>5.08</v>
+          </cell>
+          <cell r="N3">
+            <v>4.07</v>
+          </cell>
+          <cell r="O3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="P3">
+            <v>5.27</v>
+          </cell>
+          <cell r="Q3">
+            <v>4.63</v>
+          </cell>
+          <cell r="R3">
+            <v>4.41</v>
+          </cell>
+          <cell r="S3">
+            <v>3.49</v>
+          </cell>
+          <cell r="T3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="V3">
+            <v>4.97</v>
+          </cell>
+          <cell r="W3">
+            <v>8.57</v>
+          </cell>
+          <cell r="X3">
+            <v>8.25</v>
+          </cell>
+          <cell r="Y3">
+            <v>6.83</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>12.52</v>
+          </cell>
+          <cell r="C4">
+            <v>12.79</v>
+          </cell>
+          <cell r="D4">
+            <v>12.21</v>
+          </cell>
+          <cell r="E4">
+            <v>9.5500000000000007</v>
+          </cell>
+          <cell r="F4">
+            <v>4.76</v>
+          </cell>
+          <cell r="G4">
+            <v>4.26</v>
+          </cell>
+          <cell r="H4">
+            <v>4.75</v>
+          </cell>
+          <cell r="I4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="J4">
+            <v>3.54</v>
+          </cell>
+          <cell r="K4">
+            <v>3.69</v>
+          </cell>
+          <cell r="L4">
+            <v>3.74</v>
+          </cell>
+          <cell r="M4">
+            <v>3.09</v>
+          </cell>
+          <cell r="N4">
+            <v>3.43</v>
+          </cell>
+          <cell r="O4">
+            <v>3.62</v>
+          </cell>
+          <cell r="P4">
+            <v>3.62</v>
+          </cell>
+          <cell r="Q4">
+            <v>3.28</v>
+          </cell>
+          <cell r="R4">
+            <v>1.79</v>
+          </cell>
+          <cell r="S4">
+            <v>1.79</v>
+          </cell>
+          <cell r="T4">
+            <v>1.47</v>
+          </cell>
+          <cell r="U4">
+            <v>2.23</v>
+          </cell>
+          <cell r="V4">
+            <v>2.17</v>
+          </cell>
+          <cell r="W4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="X4">
+            <v>6.31</v>
+          </cell>
+          <cell r="Y4">
+            <v>7.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>42.153333333333336</v>
+          </cell>
+          <cell r="C2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="D2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="E2">
+            <v>51.303333333333335</v>
+          </cell>
+          <cell r="F2">
+            <v>44.726666666666667</v>
+          </cell>
+          <cell r="G2">
+            <v>53.636666666666677</v>
+          </cell>
+          <cell r="H2">
+            <v>52.483333333333327</v>
+          </cell>
+          <cell r="I2">
+            <v>40.266666666666673</v>
+          </cell>
+          <cell r="J2">
+            <v>40.466666666666669</v>
+          </cell>
+          <cell r="K2">
+            <v>59.133333333333333</v>
+          </cell>
+          <cell r="L2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="M2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="N2">
+            <v>59.5</v>
+          </cell>
+          <cell r="O2">
+            <v>59.5</v>
+          </cell>
+          <cell r="P2">
+            <v>44.09</v>
+          </cell>
+          <cell r="Q2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="R2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>41.06666666666667</v>
+          </cell>
+          <cell r="T2">
+            <v>40.866666666666667</v>
+          </cell>
+          <cell r="U2">
+            <v>44.09</v>
+          </cell>
+          <cell r="V2">
+            <v>40.6</v>
+          </cell>
+          <cell r="W2">
+            <v>45.860000000000007</v>
+          </cell>
+          <cell r="X2">
+            <v>37.6</v>
+          </cell>
+          <cell r="Y2">
+            <v>37.6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>36.216666666666669</v>
+          </cell>
+          <cell r="C3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="D3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="E3">
+            <v>45.351666666666667</v>
+          </cell>
+          <cell r="F3">
+            <v>40.36333333333333</v>
+          </cell>
+          <cell r="G3">
+            <v>61.338333333333338</v>
+          </cell>
+          <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.1</v>
+          </cell>
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>40</v>
+          </cell>
+          <cell r="W3">
+            <v>42.63</v>
+          </cell>
+          <cell r="X3">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="Y3">
+            <v>38.799999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>30.28</v>
+          </cell>
+          <cell r="C4">
+            <v>31.28</v>
+          </cell>
+          <cell r="D4">
+            <v>31.28</v>
+          </cell>
+          <cell r="E4">
+            <v>39.4</v>
+          </cell>
+          <cell r="F4">
+            <v>36</v>
+          </cell>
+          <cell r="G4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="H4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="I4">
+            <v>39.4</v>
+          </cell>
+          <cell r="J4">
+            <v>40</v>
+          </cell>
+          <cell r="K4">
+            <v>39.4</v>
+          </cell>
+          <cell r="L4">
+            <v>39.4</v>
+          </cell>
+          <cell r="M4">
+            <v>39.4</v>
+          </cell>
+          <cell r="N4">
+            <v>39.4</v>
+          </cell>
+          <cell r="O4">
+            <v>39.4</v>
+          </cell>
+          <cell r="P4">
+            <v>39.4</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.4</v>
+          </cell>
+          <cell r="R4">
+            <v>40</v>
+          </cell>
+          <cell r="S4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="T4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="U4">
+            <v>39.4</v>
+          </cell>
+          <cell r="V4">
+            <v>39.4</v>
+          </cell>
+          <cell r="W4">
+            <v>39.4</v>
+          </cell>
+          <cell r="X4">
+            <v>40</v>
+          </cell>
+          <cell r="Y4">
+            <v>40</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="B2">
+            <v>24.09</v>
+          </cell>
+          <cell r="C2">
+            <v>24.09</v>
+          </cell>
+          <cell r="D2">
+            <v>24.09</v>
+          </cell>
+          <cell r="E2">
+            <v>24.09</v>
+          </cell>
+          <cell r="F2">
+            <v>29.04</v>
+          </cell>
+          <cell r="G2">
+            <v>29.03</v>
+          </cell>
+          <cell r="H2">
+            <v>29.05</v>
+          </cell>
+          <cell r="I2">
+            <v>29.04</v>
+          </cell>
+          <cell r="J2">
+            <v>29.04</v>
+          </cell>
+          <cell r="K2">
+            <v>29.05</v>
+          </cell>
+          <cell r="L2">
+            <v>32</v>
+          </cell>
+          <cell r="M2">
+            <v>29.03</v>
+          </cell>
+          <cell r="N2">
+            <v>29.03</v>
+          </cell>
+          <cell r="O2">
+            <v>29.03</v>
+          </cell>
+          <cell r="P2">
+            <v>32</v>
+          </cell>
+          <cell r="Q2">
+            <v>29.01</v>
+          </cell>
+          <cell r="R2">
+            <v>32</v>
+          </cell>
+          <cell r="S2">
+            <v>29.01</v>
+          </cell>
+          <cell r="T2">
+            <v>29.01</v>
+          </cell>
+          <cell r="U2">
+            <v>29.01</v>
+          </cell>
+          <cell r="V2">
+            <v>29.01</v>
+          </cell>
+          <cell r="W2">
+            <v>29.01</v>
+          </cell>
+          <cell r="X2">
+            <v>29.01</v>
+          </cell>
+          <cell r="Y2">
+            <v>27.98</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="C3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="D3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>31.63</v>
+          </cell>
+          <cell r="G3">
+            <v>23.537500000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>29.28</v>
+          </cell>
+          <cell r="I3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="J3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="K3">
+            <v>30.950000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="M3">
+            <v>30.935000000000002</v>
+          </cell>
+          <cell r="N3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="O3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="P3">
+            <v>31.4925</v>
+          </cell>
+          <cell r="Q3">
+            <v>30.92</v>
+          </cell>
+          <cell r="R3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="S3">
+            <v>30.92</v>
+          </cell>
+          <cell r="T3">
+            <v>30.92</v>
+          </cell>
+          <cell r="U3">
+            <v>30.92</v>
+          </cell>
+          <cell r="V3">
+            <v>30.92</v>
+          </cell>
+          <cell r="W3">
+            <v>29.25</v>
+          </cell>
+          <cell r="X3">
+            <v>28.305</v>
+          </cell>
+          <cell r="Y3">
+            <v>27.532499999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="E4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="F4">
+            <v>34.22</v>
+          </cell>
+          <cell r="G4">
+            <v>18.045000000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>29.509999999999998</v>
+          </cell>
+          <cell r="I4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="J4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="K4">
+            <v>32.85</v>
+          </cell>
+          <cell r="L4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="M4">
+            <v>32.840000000000003</v>
+          </cell>
+          <cell r="N4">
+            <v>29.5</v>
+          </cell>
+          <cell r="O4">
+            <v>29.5</v>
+          </cell>
+          <cell r="P4">
+            <v>30.984999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>32.83</v>
+          </cell>
+          <cell r="R4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>32.83</v>
+          </cell>
+          <cell r="T4">
+            <v>32.83</v>
+          </cell>
+          <cell r="U4">
+            <v>32.83</v>
+          </cell>
+          <cell r="V4">
+            <v>32.83</v>
+          </cell>
+          <cell r="W4">
+            <v>29.490000000000002</v>
+          </cell>
+          <cell r="X4">
+            <v>27.6</v>
+          </cell>
+          <cell r="Y4">
+            <v>27.085000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2748,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>
@@ -2797,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
         <v>1.1614000828953406</v>
       </c>
     </row>
@@ -2806,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2815,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2824,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2833,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
         <v>1.8113615841033535</v>
       </c>
     </row>
@@ -2935,99 +2929,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
         <v>76.354928641903371</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
         <v>76.958715836604483</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
         <v>76.958715836604483</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
         <v>92.928887136449049</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
         <v>81.016165784995991</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
         <v>97.155397499356894</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
         <v>95.066293805690989</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
         <v>72.937493119895038</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
         <v>73.299765436715703</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
         <v>107.11184833997829</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
         <v>73.963931350886938</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
         <v>73.963931350886938</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
         <v>107.77601425414953</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
         <v>107.77601425414953</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
         <v>79.862932243116859</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
         <v>73.903552631416829</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
         <v>73.903552631416829</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
         <v>74.386582387177725</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
         <v>74.024310070357046</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
         <v>79.862932243116859</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
         <v>73.54128031459615</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
         <v>83.069042246979805</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
         <v>68.107195562286094</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
         <v>68.107195562286094</v>
       </c>
     </row>
@@ -3036,99 +3030,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
         <v>65.60147870427646</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
         <v>66.809053093678699</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
         <v>66.809053093678699</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
         <v>82.148266775060591</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
         <v>73.112591406358348</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
         <v>111.10590063292621</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
         <v>110.06134878609326</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
         <v>72.152569766783586</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
         <v>72.877114400424929</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
         <v>89.239747376825207</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
         <v>72.665788882279529</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
         <v>72.665788882279529</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
         <v>89.571830333910839</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
         <v>89.571830333910839</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
         <v>75.615289328394496</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
         <v>72.635599522544481</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
         <v>73.179007997775486</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
         <v>73.601659034066273</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
         <v>73.420522875655919</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
         <v>75.615289328394496</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
         <v>72.454463364134142</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
         <v>77.218344330325962</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
         <v>70.280829463210111</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
         <v>70.280829463210111</v>
       </c>
     </row>
@@ -3137,99 +3131,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
         <v>54.848028766649541</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
         <v>56.659390350752901</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
         <v>56.659390350752901</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
         <v>65.209017027720719</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
         <v>125.05640376649554</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
         <v>125.05640376649554</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
         <v>72.454463364134142</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
         <v>72.454463364134142</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
         <v>72.816735680954821</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
         <v>72.816735680954821</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
         <v>71.367646413672119</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
         <v>72.454463364134142</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
         <v>72.454463364134142</v>
       </c>
     </row>
@@ -3382,99 +3376,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
         <v>43.635700561049788</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
         <v>43.635700561049788</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
         <v>43.635700561049788</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
         <v>43.635700561049788</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
         <v>52.601940402361386</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
         <v>52.583826786520355</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
         <v>52.620054018202417</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
         <v>52.601940402361386</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
         <v>52.601940402361386</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
         <v>52.620054018202417</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
         <v>57.963570691307311</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
         <v>52.583826786520355</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
         <v>52.583826786520355</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
         <v>52.583826786520355</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
         <v>57.963570691307311</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
         <v>57.963570691307311</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
         <v>52.547599554838285</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
         <v>50.681897123211833</v>
       </c>
     </row>
@@ -3483,99 +3477,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
         <v>50.568687024205367</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
         <v>50.568687024205367</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
         <v>50.568687024205367</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
         <v>50.568687024205367</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
         <v>57.293366905189067</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
         <v>42.634923285832684</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
         <v>53.036667182546189</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
         <v>48.757325440102015</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
         <v>48.757325440102015</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
         <v>56.061641027998796</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
         <v>60.069278532827461</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
         <v>56.034470604237242</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
         <v>53.009496758784643</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
         <v>53.009496758784643</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
         <v>57.044304687374861</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
         <v>56.007300180475696</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
         <v>60.069278532827461</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
         <v>56.007300180475696</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
         <v>56.007300180475696</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
         <v>56.007300180475696</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
         <v>56.007300180475696</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
         <v>52.982326335023089</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
         <v>51.270589638045422</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
         <v>49.871312814325577</v>
       </c>
     </row>
@@ -3584,99 +3578,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
         <v>57.501673487360954</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
         <v>57.501673487360954</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
         <v>57.501673487360954</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
         <v>57.501673487360954</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
         <v>61.984793408016756</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
         <v>32.686019785145014</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
         <v>53.453280346889954</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
         <v>44.912710477842651</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
         <v>44.912710477842651</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
         <v>59.503228037795161</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
         <v>62.174986374347611</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
         <v>59.485114421954137</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
         <v>53.43516673104893</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
         <v>53.43516673104893</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
         <v>56.125038683442405</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
         <v>59.467000806113091</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
         <v>62.174986374347611</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
         <v>59.467000806113091</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
         <v>59.467000806113091</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
         <v>59.467000806113091</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
         <v>59.467000806113091</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
         <v>53.417053115207899</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
         <v>49.993579721252559</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
         <v>49.060728505439329</v>
       </c>
     </row>
@@ -3829,99 +3823,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B2*Scenarios!$B$6</f>
         <v>50.764797623355335</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C2*Scenarios!$B$6</f>
         <v>47.367702380886463</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D2*Scenarios!$B$6</f>
         <v>45.355576737270283</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E2*Scenarios!$B$6</f>
         <v>42.533374535834611</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F2*Scenarios!$B$6</f>
         <v>43.802204126397775</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G2*Scenarios!$B$6</f>
         <v>47.32124637757066</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H2*Scenarios!$B$6</f>
         <v>57.251217086325816</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I2*Scenarios!$B$6</f>
         <v>59.916630276570622</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J2*Scenarios!$B$6</f>
         <v>63.005954497072224</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K2*Scenarios!$B$6</f>
         <v>62.5268769628779</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L2*Scenarios!$B$6</f>
         <v>61.321924376873987</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M2*Scenarios!$B$6</f>
         <v>61.022863855528428</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N2*Scenarios!$B$6</f>
         <v>58.659414686836406</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O2*Scenarios!$B$6</f>
         <v>57.831917127773487</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P2*Scenarios!$B$6</f>
         <v>56.69664854674329</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q2*Scenarios!$B$6</f>
         <v>56.809885054825585</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R2*Scenarios!$B$6</f>
         <v>57.686742117411569</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S2*Scenarios!$B$6</f>
         <v>60.537979320919625</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T2*Scenarios!$B$6</f>
         <v>63.435672527743506</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U2*Scenarios!$B$6</f>
         <v>63.923460562559555</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V2*Scenarios!$B$6</f>
         <v>62.448482457282459</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W2*Scenarios!$B$6</f>
         <v>58.525853677303445</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X2*Scenarios!$B$6</f>
         <v>52.823379270287333</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y2*Scenarios!$B$6</f>
         <v>49.580169538802089</v>
       </c>
     </row>
@@ -3930,99 +3924,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B3*Scenarios!$B$6</f>
         <v>47.408351383787803</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C3*Scenarios!$B$6</f>
         <v>44.748745193957475</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D3*Scenarios!$B$6</f>
         <v>41.851051987133594</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E3*Scenarios!$B$6</f>
         <v>39.981197853672093</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F3*Scenarios!$B$6</f>
         <v>42.205279012416682</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G3*Scenarios!$B$6</f>
         <v>44.45839517323364</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H3*Scenarios!$B$6</f>
         <v>51.333883663974056</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I3*Scenarios!$B$6</f>
         <v>53.621841827277876</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J3*Scenarios!$B$6</f>
         <v>56.304676018766116</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K3*Scenarios!$B$6</f>
         <v>56.682131045707095</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L3*Scenarios!$B$6</f>
         <v>55.050363929239147</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M3*Scenarios!$B$6</f>
         <v>53.917998848416183</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N3*Scenarios!$B$6</f>
         <v>52.2688107307048</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O3*Scenarios!$B$6</f>
         <v>51.71714569132952</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P3*Scenarios!$B$6</f>
         <v>49.411766526782266</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q3*Scenarios!$B$6</f>
         <v>49.022697499012324</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R3*Scenarios!$B$6</f>
         <v>50.033115571131269</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S3*Scenarios!$B$6</f>
         <v>55.166503937528681</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T3*Scenarios!$B$6</f>
         <v>57.756426122385292</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U3*Scenarios!$B$6</f>
         <v>58.66231818704366</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V3*Scenarios!$B$6</f>
         <v>58.987510210254349</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W3*Scenarios!$B$6</f>
         <v>56.368553023325354</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X3*Scenarios!$B$6</f>
         <v>51.049340643664692</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y3*Scenarios!$B$6</f>
         <v>48.441997457564653</v>
       </c>
     </row>
@@ -4031,99 +4025,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B4*Scenarios!$B$6</f>
         <v>54.121243862922874</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C4*Scenarios!$B$6</f>
         <v>49.986659567815458</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D4*Scenarios!$B$6</f>
         <v>48.860101487406979</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E4*Scenarios!$B$6</f>
         <v>45.085551217997121</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F4*Scenarios!$B$6</f>
         <v>45.399129240378869</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G4*Scenarios!$B$6</f>
         <v>50.184097581907665</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H4*Scenarios!$B$6</f>
         <v>63.168550508677576</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I4*Scenarios!$B$6</f>
         <v>66.211418725863368</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J4*Scenarios!$B$6</f>
         <v>69.707232975378346</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K4*Scenarios!$B$6</f>
         <v>68.37162288004869</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L4*Scenarios!$B$6</f>
         <v>67.59348482450882</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M4*Scenarios!$B$6</f>
         <v>68.12772886264068</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N4*Scenarios!$B$6</f>
         <v>65.050018642968027</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O4*Scenarios!$B$6</f>
         <v>63.946688564217453</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P4*Scenarios!$B$6</f>
         <v>63.981530566704315</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q4*Scenarios!$B$6</f>
         <v>64.597072610638847</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R4*Scenarios!$B$6</f>
         <v>65.340368663691862</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S4*Scenarios!$B$6</f>
         <v>65.909454704310576</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T4*Scenarios!$B$6</f>
         <v>69.11491893310172</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U4*Scenarios!$B$6</f>
         <v>69.184602938075443</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V4*Scenarios!$B$6</f>
         <v>65.909454704310576</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W4*Scenarios!$B$6</f>
         <v>60.683154331281543</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X4*Scenarios!$B$6</f>
         <v>54.59741789690996</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y4*Scenarios!$B$6</f>
         <v>50.718341620039524</v>
       </c>
     </row>
@@ -4277,99 +4271,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B2*Scenarios!$B$6</f>
         <v>60.917757148026404</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C2*Scenarios!$B$6</f>
         <v>56.841242857063747</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D2*Scenarios!$B$6</f>
         <v>54.426692084724344</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E2*Scenarios!$B$6</f>
         <v>51.040049443001536</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F2*Scenarios!$B$6</f>
         <v>52.562644951677328</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G2*Scenarios!$B$6</f>
         <v>56.785495653084787</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H2*Scenarios!$B$6</f>
         <v>68.701460503590965</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I2*Scenarios!$B$6</f>
         <v>71.899956331884752</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J2*Scenarios!$B$6</f>
         <v>75.607145396486672</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K2*Scenarios!$B$6</f>
         <v>75.032252355453465</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L2*Scenarios!$B$6</f>
         <v>73.586309252248796</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M2*Scenarios!$B$6</f>
         <v>73.227436626634116</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N2*Scenarios!$B$6</f>
         <v>70.391297624203688</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O2*Scenarios!$B$6</f>
         <v>69.39830055332817</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P2*Scenarios!$B$6</f>
         <v>68.035978256091951</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
         <v>68.171862065790691</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R2*Scenarios!$B$6</f>
         <v>69.224090540893869</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S2*Scenarios!$B$6</f>
         <v>72.645575185103553</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T2*Scenarios!$B$6</f>
         <v>76.122807033292204</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U2*Scenarios!$B$6</f>
         <v>76.70815267507146</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V2*Scenarios!$B$6</f>
         <v>74.938178948738951</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W2*Scenarios!$B$6</f>
         <v>70.231024412764143</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X2*Scenarios!$B$6</f>
         <v>63.388055124344788</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
         <v>59.496203446562504</v>
       </c>
     </row>
@@ -4378,99 +4372,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B3*Scenarios!$B$6</f>
         <v>60.917757148026404</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C3*Scenarios!$B$6</f>
         <v>56.841242857063747</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D3*Scenarios!$B$6</f>
         <v>54.426692084724344</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E3*Scenarios!$B$6</f>
         <v>51.040049443001536</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F3*Scenarios!$B$6</f>
         <v>52.562644951677328</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G3*Scenarios!$B$6</f>
         <v>56.785495653084787</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H3*Scenarios!$B$6</f>
         <v>68.701460503590965</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I3*Scenarios!$B$6</f>
         <v>71.899956331884752</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J3*Scenarios!$B$6</f>
         <v>75.607145396486672</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K3*Scenarios!$B$6</f>
         <v>75.032252355453465</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L3*Scenarios!$B$6</f>
         <v>73.586309252248796</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M3*Scenarios!$B$6</f>
         <v>73.227436626634116</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N3*Scenarios!$B$6</f>
         <v>70.391297624203688</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O3*Scenarios!$B$6</f>
         <v>69.39830055332817</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P3*Scenarios!$B$6</f>
         <v>68.035978256091951</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
         <v>68.171862065790691</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R3*Scenarios!$B$6</f>
         <v>69.224090540893869</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S3*Scenarios!$B$6</f>
         <v>72.645575185103553</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T3*Scenarios!$B$6</f>
         <v>76.122807033292204</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U3*Scenarios!$B$6</f>
         <v>76.70815267507146</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V3*Scenarios!$B$6</f>
         <v>74.938178948738951</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W3*Scenarios!$B$6</f>
         <v>70.231024412764143</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X3*Scenarios!$B$6</f>
         <v>63.388055124344788</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
         <v>59.496203446562504</v>
       </c>
     </row>
@@ -4479,99 +4473,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B4*Scenarios!$B$6</f>
         <v>60.917757148026404</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C4*Scenarios!$B$6</f>
         <v>56.841242857063747</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D4*Scenarios!$B$6</f>
         <v>54.426692084724344</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E4*Scenarios!$B$6</f>
         <v>51.040049443001536</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F4*Scenarios!$B$6</f>
         <v>52.562644951677328</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G4*Scenarios!$B$6</f>
         <v>56.785495653084787</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H4*Scenarios!$B$6</f>
         <v>68.701460503590965</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I4*Scenarios!$B$6</f>
         <v>71.899956331884752</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J4*Scenarios!$B$6</f>
         <v>75.607145396486672</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K4*Scenarios!$B$6</f>
         <v>75.032252355453465</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L4*Scenarios!$B$6</f>
         <v>73.586309252248796</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M4*Scenarios!$B$6</f>
         <v>73.227436626634116</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N4*Scenarios!$B$6</f>
         <v>70.391297624203688</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O4*Scenarios!$B$6</f>
         <v>69.39830055332817</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P4*Scenarios!$B$6</f>
         <v>68.035978256091951</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
         <v>68.171862065790691</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R4*Scenarios!$B$6</f>
         <v>69.224090540893869</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S4*Scenarios!$B$6</f>
         <v>72.645575185103553</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T4*Scenarios!$B$6</f>
         <v>76.122807033292204</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U4*Scenarios!$B$6</f>
         <v>76.70815267507146</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V4*Scenarios!$B$6</f>
         <v>74.938178948738951</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W4*Scenarios!$B$6</f>
         <v>70.231024412764143</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X4*Scenarios!$B$6</f>
         <v>63.388055124344788</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
         <v>59.496203446562504</v>
       </c>
     </row>
@@ -4725,99 +4719,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
         <v>45.904023388782811</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
         <v>44.550175513592279</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
         <v>50.281980184269528</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
         <v>55.336643553961423</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
         <v>58.189999946128154</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
         <v>53.184356549306059</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
         <v>49.267585998343932</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
         <v>53.352093160397992</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
         <v>46.654968617512459</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
         <v>42.299296097914173</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
         <v>41.622915568794141</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
         <v>36.715325702923515</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
         <v>40.845841449213786</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
         <v>33.951074715482797</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
         <v>35.491818878921102</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
         <v>29.294154650832276</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
         <v>23.109871856446016</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
         <v>26.937011707822741</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
         <v>18.26913934664465</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
         <v>15.892388414487195</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
         <v>17.821905114721609</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
         <v>24.891278048352255</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
         <v>29.194307871912546</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
         <v>25.785112535643901</v>
       </c>
     </row>
@@ -4826,99 +4820,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
         <v>36.843094620662207</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
         <v>38.745024283970729</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
         <v>53.050252394426963</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
         <v>60.141732996191593</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
         <v>65.453550841574668</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
         <v>65.059579697032206</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
         <v>64.611267704966622</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
         <v>67.722281225664133</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
         <v>63.035383126796695</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
         <v>54.476699641908361</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
         <v>56.02541379631672</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
         <v>45.822919673854585</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
         <v>52.221554469699676</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
         <v>38.96238767406313</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
         <v>41.027339879940953</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
         <v>36.843094620662207</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
         <v>24.711500411130004</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
         <v>30.811260545598039</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
         <v>20.133284007308774</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
         <v>17.660775445007697</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
         <v>19.712142439004744</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
         <v>23.149201044840858</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
         <v>24.73867083489155</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
         <v>19.019296633085212</v>
       </c>
     </row>
@@ -4927,99 +4921,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
         <v>50.593140405590759</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
         <v>47.760170888053118</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
         <v>50.623933552520526</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
         <v>50.531554111731246</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
         <v>52.102004605148863</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
         <v>43.479923464816892</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
         <v>38.0295364582499</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
         <v>35.874016173166915</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
         <v>32.178838541596072</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
         <v>29.28428273019891</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
         <v>24.018654605210468</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
         <v>24.111034045999737</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
         <v>26.328140624942243</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
         <v>26.328140624942243</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
         <v>29.253489583269157</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
         <v>22.940894462668972</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
         <v>19.307303124957642</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
         <v>21.493616556970391</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
         <v>16.043229550403399</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
         <v>15.796884374965346</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
         <v>16.659092488998539</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
         <v>29.253489583269157</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
         <v>33.071839802559026</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
         <v>33.071839802559026</v>
       </c>
     </row>
@@ -5198,99 +5192,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
         <v>90.586192821008709</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
         <v>81.511271284650903</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
         <v>88.756717621064325</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
         <v>67.581900702896121</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
         <v>67.581900702896121</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
         <v>86.945356036960959</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
         <v>90.586192821008709</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
         <v>90.586192821008709</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
         <v>86.945356036960959</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
         <v>84.916631062765219</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
         <v>86.727992646868572</v>
       </c>
     </row>
@@ -5299,99 +5293,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
         <v>86.347606714206862</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
         <v>58.760569788312779</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
         <v>86.347606714206862</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
         <v>66.006016124726202</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
         <v>67.817377708829554</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
         <v>67.817377708829554</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
         <v>67.817377708829554</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
         <v>67.817377708829554</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
         <v>67.817377708829554</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
         <v>73.704302857165445</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
         <v>86.347606714206862</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
         <v>80.424454334188894</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
         <v>80.424454334188894</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
         <v>80.424454334188894</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
         <v>80.424454334188894</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
         <v>86.347606714206862</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
         <v>86.347606714206862</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
         <v>81.511271284650903</v>
       </c>
     </row>
@@ -5400,99 +5394,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
         <v>103.22949667805011</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
         <v>103.22949667805011</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
         <v>103.22949667805011</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
         <v>103.22949667805011</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
         <v>108.59112696699604</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
         <v>108.59112696699604</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
         <v>108.59112696699604</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
         <v>108.59112696699604</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
         <v>108.59112696699604</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
         <v>99.624887125684438</v>
       </c>
     </row>
@@ -5645,99 +5639,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
         <v>47.04106033916409</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
         <v>47.04106033916409</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
         <v>45.30215321842487</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
         <v>45.229698755060731</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
         <v>53.888007127074765</v>
       </c>
     </row>
@@ -5746,99 +5740,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
         <v>51.3702145251711</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
         <v>51.3702145251711</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
         <v>49.332432743054831</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
         <v>52.275895317222783</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
         <v>52.275895317222783</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
         <v>51.3702145251711</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
         <v>67.609071126657668</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
         <v>55.699368711178117</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
         <v>58.833024251676925</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
         <v>63.180292053524958</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
         <v>58.851137867517942</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
         <v>58.851137867517942</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
         <v>58.833024251676925</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
         <v>58.869251483358987</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
         <v>58.833024251676925</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
         <v>58.833024251676925</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
         <v>63.189348861445495</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
         <v>66.793958413811154</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
         <v>66.793958413811154</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
         <v>66.793958413811154</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
         <v>66.793958413811154</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
         <v>64.067859229735618</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
         <v>55.699368711178117</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
         <v>55.699368711178117</v>
       </c>
     </row>
@@ -5847,99 +5841,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
         <v>53.43516673104893</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
         <v>81.330135126240563</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
         <v>72.436349748293111</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
         <v>72.472576979975173</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
         <v>72.472576979975173</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
         <v>72.472576979975173</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
         <v>72.436349748293111</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
         <v>72.436349748293111</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
         <v>72.436349748293111</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
         <v>72.436349748293111</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
         <v>72.490690595816204</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
         <v>79.699909700547551</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
         <v>79.699909700547551</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
         <v>79.699909700547551</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
         <v>79.699909700547551</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
         <v>74.247711332396463</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
         <v>57.510730295281469</v>
       </c>
     </row>
@@ -6092,99 +6086,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B2*Scenarios!$B$6</f>
         <v>43.28538108950935</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C2*Scenarios!$B$6</f>
         <v>39.499216819270529</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D2*Scenarios!$B$6</f>
         <v>37.826800699901241</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E2*Scenarios!$B$6</f>
         <v>37.141574650992993</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F2*Scenarios!$B$6</f>
         <v>37.315784663427294</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G2*Scenarios!$B$6</f>
         <v>42.240121014903536</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H2*Scenarios!$B$6</f>
         <v>44.028677142562358</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I2*Scenarios!$B$6</f>
         <v>44.028677142562358</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J2*Scenarios!$B$6</f>
         <v>46.270179302550375</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K2*Scenarios!$B$6</f>
         <v>46.386319310839902</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L2*Scenarios!$B$6</f>
         <v>46.270179302550375</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M2*Scenarios!$B$6</f>
         <v>46.467617316642574</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N2*Scenarios!$B$6</f>
         <v>45.805619269392231</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O2*Scenarios!$B$6</f>
         <v>45.515269248668396</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P2*Scenarios!$B$6</f>
         <v>44.562921180694218</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q2*Scenarios!$B$6</f>
         <v>43.192469082877714</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R2*Scenarios!$B$6</f>
         <v>40.625774899679008</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S2*Scenarios!$B$6</f>
         <v>43.401521097798877</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T2*Scenarios!$B$6</f>
         <v>45.062323216339209</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U2*Scenarios!$B$6</f>
         <v>46.339863307524091</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V2*Scenarios!$B$6</f>
         <v>45.341059236234095</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W2*Scenarios!$B$6</f>
         <v>46.270179302550375</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X2*Scenarios!$B$6</f>
         <v>46.177267295918739</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y2*Scenarios!$B$6</f>
         <v>44.295799161628288</v>
       </c>
     </row>
@@ -6193,99 +6187,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B3*Scenarios!$B$6</f>
         <v>46.084355289287117</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C3*Scenarios!$B$6</f>
         <v>40.649002901336921</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D3*Scenarios!$B$6</f>
         <v>44.365483166602012</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E3*Scenarios!$B$6</f>
         <v>42.855663058838068</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F3*Scenarios!$B$6</f>
         <v>43.680257117693756</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G3*Scenarios!$B$6</f>
         <v>44.365483166602012</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H3*Scenarios!$B$6</f>
         <v>43.215697084535627</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I3*Scenarios!$B$6</f>
         <v>46.665055330734781</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J3*Scenarios!$B$6</f>
         <v>49.754379551236397</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K3*Scenarios!$B$6</f>
         <v>49.975045566986509</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L3*Scenarios!$B$6</f>
         <v>50.462833601802551</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M3*Scenarios!$B$6</f>
         <v>51.415181669776729</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N3*Scenarios!$B$6</f>
         <v>52.228161727803467</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O3*Scenarios!$B$6</f>
         <v>53.586999824791015</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P3*Scenarios!$B$6</f>
         <v>51.554549679724168</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q3*Scenarios!$B$6</f>
         <v>49.951817565328597</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R3*Scenarios!$B$6</f>
         <v>49.777607552894295</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S3*Scenarios!$B$6</f>
         <v>50.78802562501324</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T3*Scenarios!$B$6</f>
         <v>51.066761644908127</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U3*Scenarios!$B$6</f>
         <v>52.146863722000788</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V3*Scenarios!$B$6</f>
         <v>52.785633767593232</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W3*Scenarios!$B$6</f>
         <v>53.598613825619964</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X3*Scenarios!$B$6</f>
         <v>52.228161727803467</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y3*Scenarios!$B$6</f>
         <v>49.359503523051977</v>
       </c>
     </row>
@@ -6294,99 +6288,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B4*Scenarios!$B$6</f>
         <v>38.779148767875419</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C4*Scenarios!$B$6</f>
         <v>35.794350554834395</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D4*Scenarios!$B$6</f>
         <v>33.552848394846393</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E4*Scenarios!$B$6</f>
         <v>33.018604356714533</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F4*Scenarios!$B$6</f>
         <v>34.156776437951969</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G4*Scenarios!$B$6</f>
         <v>39.94054885077076</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H4*Scenarios!$B$6</f>
         <v>52.541739750185208</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I4*Scenarios!$B$6</f>
         <v>49.847291557868019</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J4*Scenarios!$B$6</f>
         <v>52.123635720342889</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K4*Scenarios!$B$6</f>
         <v>51.450023672263583</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L4*Scenarios!$B$6</f>
         <v>47.687087403682689</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M4*Scenarios!$B$6</f>
         <v>46.339863307524091</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N4*Scenarios!$B$6</f>
         <v>51.310655662316144</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O4*Scenarios!$B$6</f>
         <v>52.472055745211485</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P4*Scenarios!$B$6</f>
         <v>52.123635720342889</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q4*Scenarios!$B$6</f>
         <v>51.508093676408357</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R4*Scenarios!$B$6</f>
         <v>51.508093676408357</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S4*Scenarios!$B$6</f>
         <v>52.123635720342889</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T4*Scenarios!$B$6</f>
         <v>53.633455828106825</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U4*Scenarios!$B$6</f>
         <v>55.607835969028912</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V4*Scenarios!$B$6</f>
         <v>59.440456242583529</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W4*Scenarios!$B$6</f>
         <v>64.678370616441512</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X4*Scenarios!$B$6</f>
         <v>58.964282208596444</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y4*Scenarios!$B$6</f>
         <v>52.263003730290329</v>
       </c>
     </row>
@@ -6540,99 +6534,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B2*Scenarios!$B$6</f>
         <v>51.259554058668755</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C2*Scenarios!$B$6</f>
         <v>46.377028110176731</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D2*Scenarios!$B$6</f>
         <v>46.298052904539865</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E2*Scenarios!$B$6</f>
         <v>45.206336826618234</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F2*Scenarios!$B$6</f>
         <v>46.061127287629212</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G2*Scenarios!$B$6</f>
         <v>50.618461212910518</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H2*Scenarios!$B$6</f>
         <v>55.914445590913282</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I2*Scenarios!$B$6</f>
         <v>56.216409612466059</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J2*Scenarios!$B$6</f>
         <v>59.259277829651857</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K2*Scenarios!$B$6</f>
         <v>59.124555420035989</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L2*Scenarios!$B$6</f>
         <v>57.768040123214242</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M2*Scenarios!$B$6</f>
         <v>57.689064917577362</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N2*Scenarios!$B$6</f>
         <v>59.737774663804736</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O2*Scenarios!$B$6</f>
         <v>60.629729927468354</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P2*Scenarios!$B$6</f>
         <v>59.296442632304498</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
         <v>57.860952129845849</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R2*Scenarios!$B$6</f>
         <v>56.76459045159266</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S2*Scenarios!$B$6</f>
         <v>58.525272977261999</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T2*Scenarios!$B$6</f>
         <v>59.905016275741659</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U2*Scenarios!$B$6</f>
         <v>61.637825199421513</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V2*Scenarios!$B$6</f>
         <v>63.026859698564344</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W2*Scenarios!$B$6</f>
         <v>65.81886549784474</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X2*Scenarios!$B$6</f>
         <v>62.947884492927457</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
         <v>58.367322565988239</v>
       </c>
     </row>
@@ -6641,99 +6635,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B3*Scenarios!$B$6</f>
         <v>51.259554058668755</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C3*Scenarios!$B$6</f>
         <v>46.377028110176731</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D3*Scenarios!$B$6</f>
         <v>46.298052904539865</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E3*Scenarios!$B$6</f>
         <v>45.206336826618234</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F3*Scenarios!$B$6</f>
         <v>46.061127287629212</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G3*Scenarios!$B$6</f>
         <v>50.618461212910518</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H3*Scenarios!$B$6</f>
         <v>55.914445590913282</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I3*Scenarios!$B$6</f>
         <v>56.216409612466059</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J3*Scenarios!$B$6</f>
         <v>59.259277829651857</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K3*Scenarios!$B$6</f>
         <v>59.124555420035989</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L3*Scenarios!$B$6</f>
         <v>57.768040123214242</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M3*Scenarios!$B$6</f>
         <v>57.689064917577362</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N3*Scenarios!$B$6</f>
         <v>59.737774663804736</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O3*Scenarios!$B$6</f>
         <v>60.629729927468354</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P3*Scenarios!$B$6</f>
         <v>59.296442632304498</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
         <v>57.860952129845849</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R3*Scenarios!$B$6</f>
         <v>56.76459045159266</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S3*Scenarios!$B$6</f>
         <v>58.525272977261999</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T3*Scenarios!$B$6</f>
         <v>59.905016275741659</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U3*Scenarios!$B$6</f>
         <v>61.637825199421513</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V3*Scenarios!$B$6</f>
         <v>63.026859698564344</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W3*Scenarios!$B$6</f>
         <v>65.81886549784474</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X3*Scenarios!$B$6</f>
         <v>62.947884492927457</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
         <v>58.367322565988239</v>
       </c>
     </row>
@@ -6742,99 +6736,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B4*Scenarios!$B$6</f>
         <v>51.259554058668755</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C4*Scenarios!$B$6</f>
         <v>46.377028110176731</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D4*Scenarios!$B$6</f>
         <v>46.298052904539865</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E4*Scenarios!$B$6</f>
         <v>45.206336826618234</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F4*Scenarios!$B$6</f>
         <v>46.061127287629212</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G4*Scenarios!$B$6</f>
         <v>50.618461212910518</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H4*Scenarios!$B$6</f>
         <v>55.914445590913282</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I4*Scenarios!$B$6</f>
         <v>56.216409612466059</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J4*Scenarios!$B$6</f>
         <v>59.259277829651857</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K4*Scenarios!$B$6</f>
         <v>59.124555420035989</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L4*Scenarios!$B$6</f>
         <v>57.768040123214242</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M4*Scenarios!$B$6</f>
         <v>57.689064917577362</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N4*Scenarios!$B$6</f>
         <v>59.737774663804736</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O4*Scenarios!$B$6</f>
         <v>60.629729927468354</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P4*Scenarios!$B$6</f>
         <v>59.296442632304498</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
         <v>57.860952129845849</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R4*Scenarios!$B$6</f>
         <v>56.76459045159266</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S4*Scenarios!$B$6</f>
         <v>58.525272977261999</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T4*Scenarios!$B$6</f>
         <v>59.905016275741659</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U4*Scenarios!$B$6</f>
         <v>61.637825199421513</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V4*Scenarios!$B$6</f>
         <v>63.026859698564344</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W4*Scenarios!$B$6</f>
         <v>65.81886549784474</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X4*Scenarios!$B$6</f>
         <v>62.947884492927457</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
         <v>58.367322565988239</v>
       </c>
     </row>
@@ -6988,99 +6982,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
         <v>18.584569852900405</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
         <v>19.761049201775538</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
         <v>18.267309871444702</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
         <v>15.894697900506927</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
         <v>14.416264575561769</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
         <v>11.467820757037535</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
         <v>10.337259424319429</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
         <v>8.8629922310177083</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
         <v>7.2869265166893804</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
         <v>8.129390789455849</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
         <v>7.6482025846387955</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
         <v>7.3254179503515768</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
         <v>6.6567538215798239</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
         <v>7.5917786712939757</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
         <v>8.1320172637528021</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
         <v>7.2355744157800501</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
         <v>5.3906120742915808</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
         <v>4.6385347445718672</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
         <v>5.4596249506459182</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
         <v>4.0206793082342127</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
         <v>6.5958920723539514</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
         <v>12.285650512260199</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
         <v>13.714180825563309</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
         <v>12.501202540768498</v>
       </c>
     </row>
@@ -7089,99 +7083,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
         <v>14.490892672826828</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
         <v>14.472779056985795</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
         <v>14.056165892642023</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
         <v>14.490892672826828</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
         <v>19.924977425136888</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
         <v>15.450914312401604</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
         <v>11.665168601625597</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
         <v>8.5315130611267946</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
         <v>8.4590585977626613</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
         <v>10.252306566024981</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
         <v>8.676421987855063</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
         <v>9.2017168472450361</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
         <v>7.3722416473006493</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
         <v>8.0424454334188908</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
         <v>9.5458755482246715</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
         <v>8.3866041343985263</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
         <v>7.9881045858957886</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
         <v>6.321651928520704</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
         <v>8.0424454334188908</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
         <v>4.1661316434377129</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
         <v>9.0024670729936656</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
         <v>15.523368775765739</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
         <v>14.943733068852666</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
         <v>12.371599619425904</v>
       </c>
     </row>
@@ -7190,99 +7184,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
         <v>22.678247032973985</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
         <v>23.167314660681889</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
         <v>22.116724941901946</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
         <v>17.298503128187026</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
         <v>8.6220811403319626</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
         <v>7.7164003482802856</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
         <v>8.6039675244909297</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
         <v>8.3503769027164605</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
         <v>6.4122200077258711</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
         <v>6.6839242453413741</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
         <v>6.774492324546542</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
         <v>5.5971072948793621</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
         <v>6.2129702334745023</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
         <v>6.5571289344541395</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
         <v>6.5571289344541395</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
         <v>5.9412659958589993</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
         <v>3.2423372355450026</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
         <v>3.2423372355450026</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
         <v>2.6627015286319295</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
         <v>4.0393363325504783</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
         <v>3.930654637504277</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
         <v>8.3322632868754258</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
         <v>11.429691595692159</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
         <v>13.404075722364816</v>
       </c>
     </row>

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD6384-CEF3-4DC6-ADBC-E2C1C0EEE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343A738-60DD-4E15-8F42-769B69568D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="4035" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23880" yWindow="4485" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,16 +2755,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343A738-60DD-4E15-8F42-769B69568D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CECDD21-486F-4F50-958B-4DC0B7A412E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="4485" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CECDD21-486F-4F50-958B-4DC0B7A412E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46B2A7-6B5A-4FF3-BBD3-818208457B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2050.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46B2A7-6B5A-4FF3-BBD3-818208457B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B105C6-767D-4622-A587-19AC832A137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
